--- a/Database/Campean/teste.xlsx
+++ b/Database/Campean/teste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\Desktop\Licenta\Database\Campean\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\Desktop\New folder\Licenta_covid19_UTCN\Database\Campean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E4C70D-F8B6-4604-91DA-D1A3C1E047E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1C99E1-F373-45CE-8C3E-7CF3BEDF034A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="23090" windowHeight="13749" xr2:uid="{D50536B7-3199-490E-AD5E-A59DC4FA4891}"/>
+    <workbookView xWindow="-6311" yWindow="1891" windowWidth="12998" windowHeight="7400" xr2:uid="{D50536B7-3199-490E-AD5E-A59DC4FA4891}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -391,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA95199-6989-474A-9C6A-6FC97501D0EE}">
-  <dimension ref="A1:C374"/>
+  <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="C323" sqref="C323"/>
+    <sheetView tabSelected="1" topLeftCell="A401" workbookViewId="0">
+      <selection activeCell="E478" sqref="E478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -426,6 +426,9 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -434,6 +437,9 @@
       <c r="B3">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -442,6 +448,9 @@
       <c r="B4">
         <v>3</v>
       </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -450,6 +459,9 @@
       <c r="B5">
         <v>4</v>
       </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -458,6 +470,9 @@
       <c r="B6">
         <v>5</v>
       </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -466,6 +481,9 @@
       <c r="B7">
         <v>6</v>
       </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -474,6 +492,9 @@
       <c r="B8">
         <v>7</v>
       </c>
+      <c r="C8">
+        <v>76</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -482,6 +503,9 @@
       <c r="B9">
         <v>8</v>
       </c>
+      <c r="C9">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -490,6 +514,9 @@
       <c r="B10">
         <v>9</v>
       </c>
+      <c r="C10">
+        <v>78</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -498,6 +525,9 @@
       <c r="B11">
         <v>10</v>
       </c>
+      <c r="C11">
+        <v>77</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -506,6 +536,9 @@
       <c r="B12">
         <v>11</v>
       </c>
+      <c r="C12">
+        <v>75</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -514,6 +547,9 @@
       <c r="B13">
         <v>12</v>
       </c>
+      <c r="C13">
+        <v>139</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -522,6 +558,9 @@
       <c r="B14">
         <v>13</v>
       </c>
+      <c r="C14">
+        <v>62</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -530,6 +569,9 @@
       <c r="B15">
         <v>14</v>
       </c>
+      <c r="C15">
+        <v>169</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -538,6 +580,9 @@
       <c r="B16">
         <v>15</v>
       </c>
+      <c r="C16">
+        <v>262</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -546,6 +591,9 @@
       <c r="B17">
         <v>16</v>
       </c>
+      <c r="C17">
+        <v>480</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -554,6 +602,9 @@
       <c r="B18">
         <v>17</v>
       </c>
+      <c r="C18">
+        <v>624</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -562,6 +613,9 @@
       <c r="B19">
         <v>18</v>
       </c>
+      <c r="C19">
+        <v>384</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
@@ -570,6 +624,9 @@
       <c r="B20">
         <v>19</v>
       </c>
+      <c r="C20">
+        <v>276</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
@@ -578,6 +635,9 @@
       <c r="B21">
         <v>20</v>
       </c>
+      <c r="C21">
+        <v>503</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -586,6 +646,9 @@
       <c r="B22">
         <v>21</v>
       </c>
+      <c r="C22">
+        <v>442</v>
+      </c>
     </row>
     <row r="23" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -594,6 +657,9 @@
       <c r="B23">
         <v>22</v>
       </c>
+      <c r="C23">
+        <v>520</v>
+      </c>
     </row>
     <row r="24" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
@@ -602,6 +668,9 @@
       <c r="B24">
         <v>23</v>
       </c>
+      <c r="C24">
+        <v>303</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
@@ -610,6 +679,9 @@
       <c r="B25">
         <v>24</v>
       </c>
+      <c r="C25">
+        <v>3311</v>
+      </c>
     </row>
     <row r="26" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
@@ -3896,6 +3968,9 @@
       <c r="B324">
         <v>323</v>
       </c>
+      <c r="C324">
+        <v>52464</v>
+      </c>
     </row>
     <row r="325" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
@@ -3904,6 +3979,9 @@
       <c r="B325">
         <v>324</v>
       </c>
+      <c r="C325">
+        <v>32666</v>
+      </c>
     </row>
     <row r="326" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
@@ -3912,6 +3990,9 @@
       <c r="B326">
         <v>325</v>
       </c>
+      <c r="C326">
+        <v>31079</v>
+      </c>
     </row>
     <row r="327" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
@@ -3920,6 +4001,9 @@
       <c r="B327">
         <v>326</v>
       </c>
+      <c r="C327">
+        <v>27579</v>
+      </c>
     </row>
     <row r="328" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
@@ -3928,6 +4012,9 @@
       <c r="B328">
         <v>327</v>
       </c>
+      <c r="C328">
+        <v>14916</v>
+      </c>
     </row>
     <row r="329" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
@@ -3936,6 +4023,9 @@
       <c r="B329">
         <v>328</v>
       </c>
+      <c r="C329">
+        <v>8901</v>
+      </c>
     </row>
     <row r="330" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
@@ -3944,6 +4034,9 @@
       <c r="B330">
         <v>329</v>
       </c>
+      <c r="C330">
+        <v>28492</v>
+      </c>
     </row>
     <row r="331" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
@@ -3952,6 +4045,9 @@
       <c r="B331">
         <v>330</v>
       </c>
+      <c r="C331">
+        <v>32809</v>
+      </c>
     </row>
     <row r="332" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
@@ -3960,6 +4056,9 @@
       <c r="B332">
         <v>331</v>
       </c>
+      <c r="C332">
+        <v>30026</v>
+      </c>
     </row>
     <row r="333" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
@@ -3968,6 +4067,9 @@
       <c r="B333">
         <v>332</v>
       </c>
+      <c r="C333">
+        <v>29611</v>
+      </c>
     </row>
     <row r="334" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
@@ -3976,6 +4078,9 @@
       <c r="B334">
         <v>333</v>
       </c>
+      <c r="C334">
+        <v>26744</v>
+      </c>
     </row>
     <row r="335" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
@@ -3984,6 +4089,9 @@
       <c r="B335">
         <v>334</v>
       </c>
+      <c r="C335">
+        <v>14502</v>
+      </c>
     </row>
     <row r="336" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
@@ -3992,309 +4100,1603 @@
       <c r="B336">
         <v>335</v>
       </c>
-    </row>
-    <row r="337" spans="1:2" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C336">
+        <v>9119</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>44222</v>
       </c>
       <c r="B337">
         <v>336</v>
       </c>
-    </row>
-    <row r="338" spans="1:2" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C337">
+        <v>29082</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>44223</v>
       </c>
       <c r="B338">
         <v>337</v>
       </c>
-    </row>
-    <row r="339" spans="1:2" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C338">
+        <v>33215</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>44224</v>
       </c>
       <c r="B339">
         <v>338</v>
       </c>
-    </row>
-    <row r="340" spans="1:2" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C339">
+        <v>31415</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>44225</v>
       </c>
       <c r="B340">
         <v>339</v>
       </c>
-    </row>
-    <row r="341" spans="1:2" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C340">
+        <v>32093</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>44226</v>
       </c>
       <c r="B341">
         <v>340</v>
       </c>
-    </row>
-    <row r="342" spans="1:2" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C341">
+        <v>33597</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>44227</v>
       </c>
       <c r="B342">
         <v>341</v>
       </c>
-    </row>
-    <row r="343" spans="1:2" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C342">
+        <v>14610</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>44228</v>
       </c>
       <c r="B343">
         <v>342</v>
       </c>
-    </row>
-    <row r="344" spans="1:2" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C343">
+        <v>8995</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>44229</v>
       </c>
       <c r="B344">
         <v>343</v>
       </c>
-    </row>
-    <row r="345" spans="1:2" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C344">
+        <v>30467</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>44230</v>
       </c>
       <c r="B345">
         <v>344</v>
       </c>
-    </row>
-    <row r="346" spans="1:2" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C345">
+        <v>33922</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>44231</v>
       </c>
       <c r="B346">
         <v>345</v>
       </c>
-    </row>
-    <row r="347" spans="1:2" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C346">
+        <v>32501</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>44232</v>
       </c>
       <c r="B347">
         <v>346</v>
       </c>
-    </row>
-    <row r="348" spans="1:2" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C347">
+        <v>31969</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>44233</v>
       </c>
       <c r="B348">
         <v>347</v>
       </c>
-    </row>
-    <row r="349" spans="1:2" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C348">
+        <v>27173</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>44234</v>
       </c>
       <c r="B349">
         <v>348</v>
       </c>
-    </row>
-    <row r="350" spans="1:2" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C349">
+        <v>15543</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>44235</v>
       </c>
       <c r="B350">
         <v>349</v>
       </c>
-    </row>
-    <row r="351" spans="1:2" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C350">
+        <v>9520</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>44236</v>
       </c>
       <c r="B351">
         <v>350</v>
       </c>
-    </row>
-    <row r="352" spans="1:2" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C351">
+        <v>30395</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>44237</v>
       </c>
       <c r="B352">
         <v>351</v>
       </c>
-    </row>
-    <row r="353" spans="1:2" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C352">
+        <v>34001</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>44238</v>
       </c>
       <c r="B353">
         <v>352</v>
       </c>
-    </row>
-    <row r="354" spans="1:2" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C353">
+        <v>31645</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>44239</v>
       </c>
       <c r="B354">
         <v>353</v>
       </c>
-    </row>
-    <row r="355" spans="1:2" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C354">
+        <v>30874</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>44240</v>
       </c>
       <c r="B355">
         <v>354</v>
       </c>
-    </row>
-    <row r="356" spans="1:2" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C355">
+        <v>28572</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>44241</v>
       </c>
       <c r="B356">
         <v>355</v>
       </c>
-    </row>
-    <row r="357" spans="1:2" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C356">
+        <v>14620</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>44242</v>
       </c>
       <c r="B357">
         <v>356</v>
       </c>
-    </row>
-    <row r="358" spans="1:2" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C357">
+        <v>9775</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>44243</v>
       </c>
       <c r="B358">
         <v>357</v>
       </c>
-    </row>
-    <row r="359" spans="1:2" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C358">
+        <v>32789</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>44244</v>
       </c>
       <c r="B359">
         <v>358</v>
       </c>
-    </row>
-    <row r="360" spans="1:2" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C359">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>44245</v>
       </c>
       <c r="B360">
         <v>359</v>
       </c>
-    </row>
-    <row r="361" spans="1:2" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C360">
+        <v>35596</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>44246</v>
       </c>
       <c r="B361">
         <v>360</v>
       </c>
-    </row>
-    <row r="362" spans="1:2" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C361">
+        <v>34511</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>44247</v>
       </c>
       <c r="B362">
         <v>361</v>
       </c>
-    </row>
-    <row r="363" spans="1:2" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C362">
+        <v>37870</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>44248</v>
       </c>
       <c r="B363">
         <v>362</v>
       </c>
-    </row>
-    <row r="364" spans="1:2" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C363">
+        <v>16645</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>44249</v>
       </c>
       <c r="B364">
         <v>363</v>
       </c>
-    </row>
-    <row r="365" spans="1:2" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C364">
+        <v>10255</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>44250</v>
       </c>
       <c r="B365">
         <v>364</v>
       </c>
-    </row>
-    <row r="366" spans="1:2" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C365">
+        <v>32980</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>44251</v>
       </c>
       <c r="B366">
         <v>365</v>
       </c>
-    </row>
-    <row r="367" spans="1:2" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C366">
+        <v>34364</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>44252</v>
       </c>
       <c r="B367">
         <v>366</v>
       </c>
-    </row>
-    <row r="368" spans="1:2" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C367">
+        <v>36847</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>44253</v>
       </c>
       <c r="B368">
         <v>367</v>
       </c>
-    </row>
-    <row r="369" spans="1:2" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C368">
+        <v>35876</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>44254</v>
       </c>
       <c r="B369">
         <v>368</v>
       </c>
-    </row>
-    <row r="370" spans="1:2" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C369">
+        <v>31145</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>44255</v>
       </c>
       <c r="B370">
         <v>369</v>
       </c>
-    </row>
-    <row r="371" spans="1:2" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C370">
+        <v>17491</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>44256</v>
       </c>
       <c r="B371">
         <v>370</v>
       </c>
-    </row>
-    <row r="372" spans="1:2" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C371">
+        <v>11593</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>44257</v>
       </c>
       <c r="B372">
         <v>371</v>
       </c>
-    </row>
-    <row r="373" spans="1:2" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C372">
+        <v>33548</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>44258</v>
       </c>
       <c r="B373">
         <v>372</v>
       </c>
-    </row>
-    <row r="374" spans="1:2" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C373">
+        <v>35316</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>44259</v>
       </c>
       <c r="B374">
         <v>373</v>
+      </c>
+      <c r="C374">
+        <v>35949</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A375" s="1">
+        <v>44260</v>
+      </c>
+      <c r="B375">
+        <v>374</v>
+      </c>
+      <c r="C375">
+        <v>36337</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A376" s="1">
+        <v>44261</v>
+      </c>
+      <c r="B376">
+        <v>375</v>
+      </c>
+      <c r="C376">
+        <v>34045</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A377" s="1">
+        <v>44262</v>
+      </c>
+      <c r="B377">
+        <v>376</v>
+      </c>
+      <c r="C377">
+        <v>18175</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A378" s="1">
+        <v>44263</v>
+      </c>
+      <c r="B378">
+        <v>377</v>
+      </c>
+      <c r="C378">
+        <v>10440</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A379" s="1">
+        <v>44264</v>
+      </c>
+      <c r="B379">
+        <v>378</v>
+      </c>
+      <c r="C379">
+        <v>35619</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A380" s="1">
+        <v>44265</v>
+      </c>
+      <c r="B380">
+        <v>379</v>
+      </c>
+      <c r="C380">
+        <v>37073</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A381" s="1">
+        <v>44266</v>
+      </c>
+      <c r="B381">
+        <v>380</v>
+      </c>
+      <c r="C381">
+        <v>38255</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A382" s="1">
+        <v>44267</v>
+      </c>
+      <c r="B382">
+        <v>381</v>
+      </c>
+      <c r="C382">
+        <v>37583</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A383" s="1">
+        <v>44268</v>
+      </c>
+      <c r="B383">
+        <v>382</v>
+      </c>
+      <c r="C383">
+        <v>54520</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A384" s="1">
+        <v>44269</v>
+      </c>
+      <c r="B384">
+        <v>383</v>
+      </c>
+      <c r="C384">
+        <v>20585</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A385" s="1">
+        <v>44270</v>
+      </c>
+      <c r="B385">
+        <v>384</v>
+      </c>
+      <c r="C385">
+        <v>12217</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A386" s="1">
+        <v>44271</v>
+      </c>
+      <c r="B386">
+        <v>385</v>
+      </c>
+      <c r="C386">
+        <v>38754</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A387" s="1">
+        <v>44272</v>
+      </c>
+      <c r="B387">
+        <v>386</v>
+      </c>
+      <c r="C387">
+        <v>39902</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A388" s="1">
+        <v>44273</v>
+      </c>
+      <c r="B388">
+        <v>387</v>
+      </c>
+      <c r="C388">
+        <v>38385</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A389" s="1">
+        <v>44274</v>
+      </c>
+      <c r="B389">
+        <v>388</v>
+      </c>
+      <c r="C389">
+        <v>38738</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A390" s="1">
+        <v>44275</v>
+      </c>
+      <c r="B390">
+        <v>389</v>
+      </c>
+      <c r="C390">
+        <v>37532</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A391" s="1">
+        <v>44276</v>
+      </c>
+      <c r="B391">
+        <v>390</v>
+      </c>
+      <c r="C391">
+        <v>20392</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A392" s="1">
+        <v>44277</v>
+      </c>
+      <c r="B392">
+        <v>391</v>
+      </c>
+      <c r="C392">
+        <v>13552</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A393" s="1">
+        <v>44278</v>
+      </c>
+      <c r="B393">
+        <v>392</v>
+      </c>
+      <c r="C393">
+        <v>38700</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A394" s="1">
+        <v>44279</v>
+      </c>
+      <c r="B394">
+        <v>393</v>
+      </c>
+      <c r="C394">
+        <v>40241</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A395" s="1">
+        <v>44280</v>
+      </c>
+      <c r="B395">
+        <v>394</v>
+      </c>
+      <c r="C395">
+        <v>41979</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A396" s="1">
+        <v>44281</v>
+      </c>
+      <c r="B396">
+        <v>395</v>
+      </c>
+      <c r="C396">
+        <v>40714</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A397" s="1">
+        <v>44282</v>
+      </c>
+      <c r="B397">
+        <v>396</v>
+      </c>
+      <c r="C397">
+        <v>37144</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A398" s="1">
+        <v>44283</v>
+      </c>
+      <c r="B398">
+        <v>397</v>
+      </c>
+      <c r="C398">
+        <v>21477</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A399" s="1">
+        <v>44284</v>
+      </c>
+      <c r="B399">
+        <v>398</v>
+      </c>
+      <c r="C399">
+        <v>14355</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A400" s="1">
+        <v>44285</v>
+      </c>
+      <c r="B400">
+        <v>399</v>
+      </c>
+      <c r="C400">
+        <v>40387</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A401" s="1">
+        <v>44286</v>
+      </c>
+      <c r="B401">
+        <v>400</v>
+      </c>
+      <c r="C401">
+        <v>41554</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A402" s="1">
+        <v>44287</v>
+      </c>
+      <c r="B402">
+        <v>401</v>
+      </c>
+      <c r="C402">
+        <v>41982</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A403" s="1">
+        <v>44288</v>
+      </c>
+      <c r="B403">
+        <v>402</v>
+      </c>
+      <c r="C403">
+        <v>39734</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A404" s="1">
+        <v>44289</v>
+      </c>
+      <c r="B404">
+        <v>403</v>
+      </c>
+      <c r="C404">
+        <v>37343</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A405" s="1">
+        <v>44290</v>
+      </c>
+      <c r="B405">
+        <v>404</v>
+      </c>
+      <c r="C405">
+        <v>21647</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A406" s="1">
+        <v>44291</v>
+      </c>
+      <c r="B406">
+        <v>405</v>
+      </c>
+      <c r="C406">
+        <v>14303</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A407" s="1">
+        <v>44292</v>
+      </c>
+      <c r="B407">
+        <v>406</v>
+      </c>
+      <c r="C407">
+        <v>37530</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A408" s="1">
+        <v>44293</v>
+      </c>
+      <c r="B408">
+        <v>407</v>
+      </c>
+      <c r="C408">
+        <v>39966</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A409" s="1">
+        <v>44294</v>
+      </c>
+      <c r="B409">
+        <v>408</v>
+      </c>
+      <c r="C409">
+        <v>40492</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A410" s="1">
+        <v>44295</v>
+      </c>
+      <c r="B410">
+        <v>409</v>
+      </c>
+      <c r="C410">
+        <v>39510</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A411" s="1">
+        <v>44296</v>
+      </c>
+      <c r="B411">
+        <v>410</v>
+      </c>
+      <c r="C411">
+        <v>35665</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A412" s="1">
+        <v>44297</v>
+      </c>
+      <c r="B412">
+        <v>411</v>
+      </c>
+      <c r="C412">
+        <v>21314</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A413" s="1">
+        <v>44298</v>
+      </c>
+      <c r="B413">
+        <v>412</v>
+      </c>
+      <c r="C413">
+        <v>12647</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A414" s="1">
+        <v>44299</v>
+      </c>
+      <c r="B414">
+        <v>413</v>
+      </c>
+      <c r="C414">
+        <v>35795</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A415" s="1">
+        <v>44300</v>
+      </c>
+      <c r="B415">
+        <v>414</v>
+      </c>
+      <c r="C415">
+        <v>37206</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A416" s="1">
+        <v>44301</v>
+      </c>
+      <c r="B416">
+        <v>415</v>
+      </c>
+      <c r="C416">
+        <v>37517</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A417" s="1">
+        <v>44302</v>
+      </c>
+      <c r="B417">
+        <v>416</v>
+      </c>
+      <c r="C417">
+        <v>36521</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A418" s="1">
+        <v>44303</v>
+      </c>
+      <c r="B418">
+        <v>417</v>
+      </c>
+      <c r="C418">
+        <v>35669</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A419" s="1">
+        <v>44304</v>
+      </c>
+      <c r="B419">
+        <v>418</v>
+      </c>
+      <c r="C419">
+        <v>19419</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A420" s="1">
+        <v>44305</v>
+      </c>
+      <c r="B420">
+        <v>419</v>
+      </c>
+      <c r="C420">
+        <v>11915</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A421" s="1">
+        <v>44306</v>
+      </c>
+      <c r="B421">
+        <v>420</v>
+      </c>
+      <c r="C421">
+        <v>36120</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A422" s="1">
+        <v>44307</v>
+      </c>
+      <c r="B422">
+        <v>421</v>
+      </c>
+      <c r="C422">
+        <v>34844</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A423" s="1">
+        <v>44308</v>
+      </c>
+      <c r="B423">
+        <v>422</v>
+      </c>
+      <c r="C423">
+        <v>36942</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A424" s="1">
+        <v>44309</v>
+      </c>
+      <c r="B424">
+        <v>423</v>
+      </c>
+      <c r="C424">
+        <v>37309</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A425" s="1">
+        <v>44310</v>
+      </c>
+      <c r="B425">
+        <v>424</v>
+      </c>
+      <c r="C425">
+        <v>33423</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A426" s="1">
+        <v>44311</v>
+      </c>
+      <c r="B426">
+        <v>425</v>
+      </c>
+      <c r="C426">
+        <v>17579</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A427" s="1">
+        <v>44312</v>
+      </c>
+      <c r="B427">
+        <v>426</v>
+      </c>
+      <c r="C427">
+        <v>11714</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A428" s="1">
+        <v>44313</v>
+      </c>
+      <c r="B428">
+        <v>427</v>
+      </c>
+      <c r="C428">
+        <v>32290</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A429" s="1">
+        <v>44314</v>
+      </c>
+      <c r="B429">
+        <v>428</v>
+      </c>
+      <c r="C429">
+        <v>35290</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A430" s="1">
+        <v>44315</v>
+      </c>
+      <c r="B430">
+        <v>429</v>
+      </c>
+      <c r="C430">
+        <v>35442</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A431" s="1">
+        <v>44316</v>
+      </c>
+      <c r="B431">
+        <v>430</v>
+      </c>
+      <c r="C431">
+        <v>31991</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A432" s="1">
+        <v>44317</v>
+      </c>
+      <c r="B432">
+        <v>431</v>
+      </c>
+      <c r="C432">
+        <v>16438</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A433" s="1">
+        <v>44318</v>
+      </c>
+      <c r="B433">
+        <v>432</v>
+      </c>
+      <c r="C433">
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A434" s="1">
+        <v>44319</v>
+      </c>
+      <c r="B434">
+        <v>433</v>
+      </c>
+      <c r="C434">
+        <v>5992</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A435" s="1">
+        <v>44320</v>
+      </c>
+      <c r="B435">
+        <v>434</v>
+      </c>
+      <c r="C435">
+        <v>14061</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A436" s="1">
+        <v>44321</v>
+      </c>
+      <c r="B436">
+        <v>435</v>
+      </c>
+      <c r="C436">
+        <v>36982</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A437" s="1">
+        <v>44322</v>
+      </c>
+      <c r="B437">
+        <v>436</v>
+      </c>
+      <c r="C437">
+        <v>38477</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A438" s="1">
+        <v>44323</v>
+      </c>
+      <c r="B438">
+        <v>437</v>
+      </c>
+      <c r="C438">
+        <v>38489</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A439" s="1">
+        <v>44324</v>
+      </c>
+      <c r="B439">
+        <v>438</v>
+      </c>
+      <c r="C439">
+        <v>37457</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A440" s="1">
+        <v>44325</v>
+      </c>
+      <c r="B440">
+        <v>439</v>
+      </c>
+      <c r="C440">
+        <v>20463</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A441" s="1">
+        <v>44326</v>
+      </c>
+      <c r="B441">
+        <v>440</v>
+      </c>
+      <c r="C441">
+        <v>10743</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A442" s="1">
+        <v>44327</v>
+      </c>
+      <c r="B442">
+        <v>441</v>
+      </c>
+      <c r="C442">
+        <v>36195</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A443" s="1">
+        <v>44328</v>
+      </c>
+      <c r="B443">
+        <v>442</v>
+      </c>
+      <c r="C443">
+        <v>34543</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A444" s="1">
+        <v>44329</v>
+      </c>
+      <c r="B444">
+        <v>443</v>
+      </c>
+      <c r="C444">
+        <v>33222</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A445" s="1">
+        <v>44330</v>
+      </c>
+      <c r="B445">
+        <v>444</v>
+      </c>
+      <c r="C445">
+        <v>34616</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A446" s="1">
+        <v>44331</v>
+      </c>
+      <c r="B446">
+        <v>445</v>
+      </c>
+      <c r="C446">
+        <v>32709</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A447" s="1">
+        <v>44332</v>
+      </c>
+      <c r="B447">
+        <v>446</v>
+      </c>
+      <c r="C447">
+        <v>18749</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A448" s="1">
+        <v>44333</v>
+      </c>
+      <c r="B448">
+        <v>447</v>
+      </c>
+      <c r="C448">
+        <v>11365</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A449" s="1">
+        <v>44334</v>
+      </c>
+      <c r="B449">
+        <v>448</v>
+      </c>
+      <c r="C449">
+        <v>32151</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A450" s="1">
+        <v>44335</v>
+      </c>
+      <c r="B450">
+        <v>449</v>
+      </c>
+      <c r="C450">
+        <v>31574</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A451" s="1">
+        <v>44336</v>
+      </c>
+      <c r="B451">
+        <v>450</v>
+      </c>
+      <c r="C451">
+        <v>31252</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A452" s="1">
+        <v>44337</v>
+      </c>
+      <c r="B452">
+        <v>451</v>
+      </c>
+      <c r="C452">
+        <v>34213</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A453" s="1">
+        <v>44338</v>
+      </c>
+      <c r="B453">
+        <v>452</v>
+      </c>
+      <c r="C453">
+        <v>28724</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A454" s="1">
+        <v>44339</v>
+      </c>
+      <c r="B454">
+        <v>453</v>
+      </c>
+      <c r="C454">
+        <v>18478</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A455" s="1">
+        <v>44340</v>
+      </c>
+      <c r="B455">
+        <v>454</v>
+      </c>
+      <c r="C455">
+        <v>10487</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A456" s="1">
+        <v>44341</v>
+      </c>
+      <c r="B456">
+        <v>455</v>
+      </c>
+      <c r="C456">
+        <v>31087</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A457" s="1">
+        <v>44342</v>
+      </c>
+      <c r="B457">
+        <v>456</v>
+      </c>
+      <c r="C457">
+        <v>33057</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A458" s="1">
+        <v>44343</v>
+      </c>
+      <c r="B458">
+        <v>457</v>
+      </c>
+      <c r="C458">
+        <v>31150</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A459" s="1">
+        <v>44344</v>
+      </c>
+      <c r="B459">
+        <v>458</v>
+      </c>
+      <c r="C459">
+        <v>32868</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A460" s="1">
+        <v>44345</v>
+      </c>
+      <c r="B460">
+        <v>459</v>
+      </c>
+      <c r="C460">
+        <v>28992</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A461" s="1">
+        <v>44346</v>
+      </c>
+      <c r="B461">
+        <v>460</v>
+      </c>
+      <c r="C461">
+        <v>16973</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A462" s="1">
+        <v>44347</v>
+      </c>
+      <c r="B462">
+        <v>461</v>
+      </c>
+      <c r="C462">
+        <v>9816</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A463" s="1">
+        <v>44348</v>
+      </c>
+      <c r="B463">
+        <v>462</v>
+      </c>
+      <c r="C463">
+        <v>26785</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A464" s="1">
+        <v>44349</v>
+      </c>
+      <c r="B464">
+        <v>463</v>
+      </c>
+      <c r="C464">
+        <v>16745</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A465" s="1">
+        <v>44350</v>
+      </c>
+      <c r="B465">
+        <v>464</v>
+      </c>
+      <c r="C465">
+        <v>31775</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A466" s="1">
+        <v>44351</v>
+      </c>
+      <c r="B466">
+        <v>465</v>
+      </c>
+      <c r="C466">
+        <v>32552</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A467" s="1">
+        <v>44352</v>
+      </c>
+      <c r="B467">
+        <v>466</v>
+      </c>
+      <c r="C467">
+        <v>32183</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A468" s="1">
+        <v>44353</v>
+      </c>
+      <c r="B468">
+        <v>467</v>
+      </c>
+      <c r="C468">
+        <v>49987</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A469" s="1">
+        <v>44354</v>
+      </c>
+      <c r="B469">
+        <v>468</v>
+      </c>
+      <c r="C469">
+        <v>10072</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A470" s="1">
+        <v>44355</v>
+      </c>
+      <c r="B470">
+        <v>469</v>
+      </c>
+      <c r="C470">
+        <v>30826</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A471" s="1">
+        <v>44356</v>
+      </c>
+      <c r="B471">
+        <v>470</v>
+      </c>
+      <c r="C471">
+        <v>28388</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A472" s="1">
+        <v>44357</v>
+      </c>
+      <c r="B472">
+        <v>471</v>
+      </c>
+      <c r="C472">
+        <v>29823</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A473" s="1">
+        <v>44358</v>
+      </c>
+      <c r="B473">
+        <v>472</v>
+      </c>
+      <c r="C473">
+        <v>30239</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A474" s="1">
+        <v>44359</v>
+      </c>
+      <c r="B474">
+        <v>473</v>
+      </c>
+      <c r="C474">
+        <v>28411</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A475" s="1">
+        <v>44360</v>
+      </c>
+      <c r="B475">
+        <v>474</v>
+      </c>
+      <c r="C475">
+        <v>15853</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A476" s="1">
+        <v>44361</v>
+      </c>
+      <c r="B476">
+        <v>475</v>
+      </c>
+      <c r="C476">
+        <v>27930</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A477" s="1">
+        <v>44362</v>
+      </c>
+      <c r="B477">
+        <v>476</v>
+      </c>
+      <c r="C477">
+        <v>41710</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A478" s="1">
+        <v>44363</v>
+      </c>
+      <c r="B478">
+        <v>477</v>
+      </c>
+      <c r="C478">
+        <v>60340</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A479" s="1">
+        <v>44364</v>
+      </c>
+      <c r="B479">
+        <v>478</v>
+      </c>
+      <c r="C479">
+        <v>58158</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A480" s="1">
+        <v>44365</v>
+      </c>
+      <c r="B480">
+        <v>479</v>
+      </c>
+      <c r="C480">
+        <v>59654</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A481" s="1">
+        <v>44366</v>
+      </c>
+      <c r="B481">
+        <v>480</v>
+      </c>
+      <c r="C481">
+        <v>63528</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Campean/teste.xlsx
+++ b/Database/Campean/teste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\Desktop\New folder\Licenta_covid19_UTCN\Database\Campean\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai\Desktop\repository licenta\Licenta_covid19_UTCN\Database\Campean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1C99E1-F373-45CE-8C3E-7CF3BEDF034A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51169BA5-A48B-46E1-935C-ADD08504165C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6311" yWindow="1891" windowWidth="12998" windowHeight="7400" xr2:uid="{D50536B7-3199-490E-AD5E-A59DC4FA4891}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D50536B7-3199-490E-AD5E-A59DC4FA4891}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -391,24 +391,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA95199-6989-474A-9C6A-6FC97501D0EE}">
-  <dimension ref="A1:C481"/>
+  <dimension ref="A1:C492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A401" workbookViewId="0">
-      <selection activeCell="E478" sqref="E478"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="36" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="66" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="76" max="97" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="107" max="127" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="137" max="155" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="36" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="66" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="76" max="97" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="107" max="127" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="137" max="155" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -419,9 +421,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43887</v>
+        <v>43876</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -430,9 +432,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43888</v>
+        <v>43877</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -441,9 +443,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43889</v>
+        <v>43878</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -452,9 +454,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>43890</v>
+        <v>43879</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -463,9 +465,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>43891</v>
+        <v>43880</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -474,9 +476,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43892</v>
+        <v>43881</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -485,5217 +487,5338 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43893</v>
+        <v>43882</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43894</v>
+        <v>43883</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>43895</v>
+        <v>43884</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43896</v>
+        <v>43885</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>43897</v>
+        <v>43886</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
       <c r="C12">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>43898</v>
+        <v>43887</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
       <c r="C13">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>43899</v>
+        <v>43888</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
       <c r="C14">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>43900</v>
+        <v>43889</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
       <c r="C15">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>43901</v>
+        <v>43890</v>
       </c>
       <c r="B16">
         <v>15</v>
       </c>
       <c r="C16">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>43902</v>
+        <v>43891</v>
       </c>
       <c r="B17">
         <v>16</v>
       </c>
       <c r="C17">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>43903</v>
+        <v>43892</v>
       </c>
       <c r="B18">
         <v>17</v>
       </c>
       <c r="C18">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>43904</v>
+        <v>43893</v>
       </c>
       <c r="B19">
         <v>18</v>
       </c>
       <c r="C19">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>43905</v>
+        <v>43894</v>
       </c>
       <c r="B20">
         <v>19</v>
       </c>
       <c r="C20">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>43906</v>
+        <v>43895</v>
       </c>
       <c r="B21">
         <v>20</v>
       </c>
       <c r="C21">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>43907</v>
+        <v>43896</v>
       </c>
       <c r="B22">
         <v>21</v>
       </c>
       <c r="C22">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>43908</v>
+        <v>43897</v>
       </c>
       <c r="B23">
         <v>22</v>
       </c>
       <c r="C23">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>43909</v>
+        <v>43898</v>
       </c>
       <c r="B24">
         <v>23</v>
       </c>
       <c r="C24">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>43910</v>
+        <v>43899</v>
       </c>
       <c r="B25">
         <v>24</v>
       </c>
       <c r="C25">
-        <v>3311</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>43911</v>
+        <v>43900</v>
       </c>
       <c r="B26">
         <v>25</v>
       </c>
       <c r="C26">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>43912</v>
+        <v>43901</v>
       </c>
       <c r="B27">
         <v>26</v>
       </c>
       <c r="C27">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>43913</v>
+        <v>43902</v>
       </c>
       <c r="B28">
         <v>27</v>
       </c>
       <c r="C28">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>43914</v>
+        <v>43903</v>
       </c>
       <c r="B29">
         <v>28</v>
       </c>
       <c r="C29">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>43915</v>
+        <v>43904</v>
       </c>
       <c r="B30">
         <v>29</v>
       </c>
       <c r="C30">
-        <v>1842</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>43916</v>
+        <v>43905</v>
       </c>
       <c r="B31">
         <v>30</v>
       </c>
       <c r="C31">
-        <v>1532</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>43917</v>
+        <v>43906</v>
       </c>
       <c r="B32">
         <v>31</v>
       </c>
       <c r="C32">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>43918</v>
+        <v>43907</v>
       </c>
       <c r="B33">
         <v>32</v>
       </c>
       <c r="C33">
-        <v>2180</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>43919</v>
+        <v>43908</v>
       </c>
       <c r="B34">
         <v>33</v>
       </c>
       <c r="C34">
-        <v>1827</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>43920</v>
+        <v>43909</v>
       </c>
       <c r="B35">
         <v>34</v>
       </c>
       <c r="C35">
-        <v>1643</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>43921</v>
+        <v>43910</v>
       </c>
       <c r="B36">
         <v>35</v>
       </c>
       <c r="C36">
-        <v>1551</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>43922</v>
+        <v>43911</v>
       </c>
       <c r="B37">
         <v>36</v>
       </c>
       <c r="C37">
-        <v>1955</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>43923</v>
+        <v>43912</v>
       </c>
       <c r="B38">
         <v>37</v>
       </c>
       <c r="C38">
-        <v>1874</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>43924</v>
+        <v>43913</v>
       </c>
       <c r="B39">
         <v>38</v>
       </c>
       <c r="C39">
-        <v>3174</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>43925</v>
+        <v>43914</v>
       </c>
       <c r="B40">
         <v>39</v>
       </c>
       <c r="C40">
-        <v>4435</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>43926</v>
+        <v>43915</v>
       </c>
       <c r="B41">
         <v>40</v>
       </c>
       <c r="C41">
-        <v>2531</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>43927</v>
+        <v>43916</v>
       </c>
       <c r="B42">
         <v>41</v>
       </c>
       <c r="C42">
-        <v>2364</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>43928</v>
+        <v>43917</v>
       </c>
       <c r="B43">
         <v>42</v>
       </c>
       <c r="C43">
-        <v>2591</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>43929</v>
+        <v>43918</v>
       </c>
       <c r="B44">
         <v>43</v>
       </c>
       <c r="C44">
-        <v>3629</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>43930</v>
+        <v>43919</v>
       </c>
       <c r="B45">
         <v>44</v>
       </c>
       <c r="C45">
-        <v>4595</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>43931</v>
+        <v>43920</v>
       </c>
       <c r="B46">
         <v>45</v>
       </c>
       <c r="C46">
-        <v>3628</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>43932</v>
+        <v>43921</v>
       </c>
       <c r="B47">
         <v>46</v>
       </c>
       <c r="C47">
-        <v>3842</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>43933</v>
+        <v>43922</v>
       </c>
       <c r="B48">
         <v>47</v>
       </c>
       <c r="C48">
-        <v>3056</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>43934</v>
+        <v>43923</v>
       </c>
       <c r="B49">
         <v>48</v>
       </c>
       <c r="C49">
-        <v>4876</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>43935</v>
+        <v>43924</v>
       </c>
       <c r="B50">
         <v>49</v>
       </c>
       <c r="C50">
-        <v>2893</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>43936</v>
+        <v>43925</v>
       </c>
       <c r="B51">
         <v>50</v>
       </c>
       <c r="C51">
-        <v>4730</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4435</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>43937</v>
+        <v>43926</v>
       </c>
       <c r="B52">
         <v>51</v>
       </c>
       <c r="C52">
-        <v>4802</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>43938</v>
+        <v>43927</v>
       </c>
       <c r="B53">
         <v>52</v>
       </c>
       <c r="C53">
-        <v>6176</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>43939</v>
+        <v>43928</v>
       </c>
       <c r="B54">
         <v>53</v>
       </c>
       <c r="C54">
-        <v>5186</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>43940</v>
+        <v>43929</v>
       </c>
       <c r="B55">
         <v>54</v>
       </c>
       <c r="C55">
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3629</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>43941</v>
+        <v>43930</v>
       </c>
       <c r="B56">
         <v>55</v>
       </c>
       <c r="C56">
-        <v>4880</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4595</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>43942</v>
+        <v>43931</v>
       </c>
       <c r="B57">
         <v>56</v>
       </c>
       <c r="C57">
-        <v>3061</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3628</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>43943</v>
+        <v>43932</v>
       </c>
       <c r="B58">
         <v>57</v>
       </c>
       <c r="C58">
-        <v>4805</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3842</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>43944</v>
+        <v>43933</v>
       </c>
       <c r="B59">
         <v>58</v>
       </c>
       <c r="C59">
-        <v>6979</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>43945</v>
+        <v>43934</v>
       </c>
       <c r="B60">
         <v>59</v>
       </c>
       <c r="C60">
-        <v>8266</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4876</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>43946</v>
+        <v>43935</v>
       </c>
       <c r="B61">
         <v>60</v>
       </c>
       <c r="C61">
-        <v>5043</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2893</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>43947</v>
+        <v>43936</v>
       </c>
       <c r="B62">
         <v>61</v>
       </c>
       <c r="C62">
-        <v>9873</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4730</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>43948</v>
+        <v>43937</v>
       </c>
       <c r="B63">
         <v>62</v>
       </c>
       <c r="C63">
-        <v>7316</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4802</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>43949</v>
+        <v>43938</v>
       </c>
       <c r="B64">
         <v>63</v>
       </c>
       <c r="C64">
-        <v>6475</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6176</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>43950</v>
+        <v>43939</v>
       </c>
       <c r="B65">
         <v>64</v>
       </c>
       <c r="C65">
-        <v>16684</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5186</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>43951</v>
+        <v>43940</v>
       </c>
       <c r="B66">
         <v>65</v>
       </c>
       <c r="C66">
-        <v>8381</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>43952</v>
+        <v>43941</v>
       </c>
       <c r="B67">
         <v>66</v>
       </c>
       <c r="C67">
-        <v>8314</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>43953</v>
+        <v>43942</v>
       </c>
       <c r="B68">
         <v>67</v>
       </c>
       <c r="C68">
-        <v>6852</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>43954</v>
+        <v>43943</v>
       </c>
       <c r="B69">
         <v>68</v>
       </c>
       <c r="C69">
-        <v>4968</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4805</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>43955</v>
+        <v>43944</v>
       </c>
       <c r="B70">
         <v>69</v>
       </c>
       <c r="C70">
-        <v>3560</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6979</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>43956</v>
+        <v>43945</v>
       </c>
       <c r="B71">
         <v>70</v>
       </c>
       <c r="C71">
-        <v>6774</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8266</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>43957</v>
+        <v>43946</v>
       </c>
       <c r="B72">
         <v>71</v>
       </c>
       <c r="C72">
-        <v>11297</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5043</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>43958</v>
+        <v>43947</v>
       </c>
       <c r="B73">
         <v>72</v>
       </c>
       <c r="C73">
-        <v>9474</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9873</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>43959</v>
+        <v>43948</v>
       </c>
       <c r="B74">
         <v>73</v>
       </c>
       <c r="C74">
-        <v>10667</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7316</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>43960</v>
+        <v>43949</v>
       </c>
       <c r="B75">
         <v>74</v>
       </c>
       <c r="C75">
-        <v>10776</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6475</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>43961</v>
+        <v>43950</v>
       </c>
       <c r="B76">
         <v>75</v>
       </c>
       <c r="C76">
-        <v>8693</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16684</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>43962</v>
+        <v>43951</v>
       </c>
       <c r="B77">
         <v>76</v>
       </c>
       <c r="C77">
-        <v>5470</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8381</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>43963</v>
+        <v>43952</v>
       </c>
       <c r="B78">
         <v>77</v>
       </c>
       <c r="C78">
-        <v>6964</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8314</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>43964</v>
+        <v>43953</v>
       </c>
       <c r="B79">
         <v>78</v>
       </c>
       <c r="C79">
-        <v>8621</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6852</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>43965</v>
+        <v>43954</v>
       </c>
       <c r="B80">
         <v>79</v>
       </c>
       <c r="C80">
-        <v>8413</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4968</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>43966</v>
+        <v>43955</v>
       </c>
       <c r="B81">
         <v>80</v>
       </c>
       <c r="C81">
-        <v>8384</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>43967</v>
+        <v>43956</v>
       </c>
       <c r="B82">
         <v>81</v>
       </c>
       <c r="C82">
-        <v>9133</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6774</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>43968</v>
+        <v>43957</v>
       </c>
       <c r="B83">
         <v>82</v>
       </c>
       <c r="C83">
-        <v>6673</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11297</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>43969</v>
+        <v>43958</v>
       </c>
       <c r="B84">
         <v>83</v>
       </c>
       <c r="C84">
-        <v>3214</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9474</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>43970</v>
+        <v>43959</v>
       </c>
       <c r="B85">
         <v>84</v>
       </c>
       <c r="C85">
-        <v>8453</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10667</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>43971</v>
+        <v>43960</v>
       </c>
       <c r="B86">
         <v>85</v>
       </c>
       <c r="C86">
-        <v>10413</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10776</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>43972</v>
+        <v>43961</v>
       </c>
       <c r="B87">
         <v>86</v>
       </c>
       <c r="C87">
-        <v>9979</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8693</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>43973</v>
+        <v>43962</v>
       </c>
       <c r="B88">
         <v>87</v>
       </c>
       <c r="C88">
-        <v>10181</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5470</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>43974</v>
+        <v>43963</v>
       </c>
       <c r="B89">
         <v>88</v>
       </c>
       <c r="C89">
-        <v>8919</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6964</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>43975</v>
+        <v>43964</v>
       </c>
       <c r="B90">
         <v>89</v>
       </c>
       <c r="C90">
-        <v>6916</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8621</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>43976</v>
+        <v>43965</v>
       </c>
       <c r="B91">
         <v>90</v>
       </c>
       <c r="C91">
-        <v>8709</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8413</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>43977</v>
+        <v>43966</v>
       </c>
       <c r="B92">
         <v>91</v>
       </c>
       <c r="C92">
-        <v>8537</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8384</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>43978</v>
+        <v>43967</v>
       </c>
       <c r="B93">
         <v>92</v>
       </c>
       <c r="C93">
-        <v>11835</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9133</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>43979</v>
+        <v>43968</v>
       </c>
       <c r="B94">
         <v>93</v>
       </c>
       <c r="C94">
-        <v>12437</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6673</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>43980</v>
+        <v>43969</v>
       </c>
       <c r="B95">
         <v>94</v>
       </c>
       <c r="C95">
-        <v>11451</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3214</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>43981</v>
+        <v>43970</v>
       </c>
       <c r="B96">
         <v>95</v>
       </c>
       <c r="C96">
-        <v>4368</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8453</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>43982</v>
+        <v>43971</v>
       </c>
       <c r="B97">
         <v>96</v>
       </c>
       <c r="C97">
-        <v>13378</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10413</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>43983</v>
+        <v>43972</v>
       </c>
       <c r="B98">
         <v>97</v>
       </c>
       <c r="C98">
-        <v>4055</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9979</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>43984</v>
+        <v>43973</v>
       </c>
       <c r="B99">
         <v>98</v>
       </c>
       <c r="C99">
-        <v>5561</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10181</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>43985</v>
+        <v>43974</v>
       </c>
       <c r="B100">
         <v>99</v>
       </c>
       <c r="C100">
-        <v>10592</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8919</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>43986</v>
+        <v>43975</v>
       </c>
       <c r="B101">
         <v>100</v>
       </c>
       <c r="C101">
-        <v>13445</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6916</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>43987</v>
+        <v>43976</v>
       </c>
       <c r="B102">
         <v>101</v>
       </c>
       <c r="C102">
-        <v>11932</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8709</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>43988</v>
+        <v>43977</v>
       </c>
       <c r="B103">
         <v>102</v>
       </c>
       <c r="C103">
-        <v>11626</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8537</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>43989</v>
+        <v>43978</v>
       </c>
       <c r="B104">
         <v>103</v>
       </c>
       <c r="C104">
-        <v>6792</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11835</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>43990</v>
+        <v>43979</v>
       </c>
       <c r="B105">
         <v>104</v>
       </c>
       <c r="C105">
-        <v>2915</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12437</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>43991</v>
+        <v>43980</v>
       </c>
       <c r="B106">
         <v>105</v>
       </c>
       <c r="C106">
-        <v>5180</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11451</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>43992</v>
+        <v>43981</v>
       </c>
       <c r="B107">
         <v>106</v>
       </c>
       <c r="C107">
-        <v>9269</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>43993</v>
+        <v>43982</v>
       </c>
       <c r="B108">
         <v>107</v>
       </c>
       <c r="C108">
-        <v>11055</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>13378</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>43994</v>
+        <v>43983</v>
       </c>
       <c r="B109">
         <v>108</v>
       </c>
       <c r="C109">
-        <v>11027</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4055</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>43995</v>
+        <v>43984</v>
       </c>
       <c r="B110">
         <v>109</v>
       </c>
       <c r="C110">
-        <v>10024</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5561</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>43996</v>
+        <v>43985</v>
       </c>
       <c r="B111">
         <v>110</v>
       </c>
       <c r="C111">
-        <v>7926</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10592</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>43997</v>
+        <v>43986</v>
       </c>
       <c r="B112">
         <v>111</v>
       </c>
       <c r="C112">
-        <v>3682</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>13445</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>43998</v>
+        <v>43987</v>
       </c>
       <c r="B113">
         <v>112</v>
       </c>
       <c r="C113">
-        <v>9360</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11932</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>43999</v>
+        <v>43988</v>
       </c>
       <c r="B114">
         <v>113</v>
       </c>
       <c r="C114">
-        <v>11715</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11626</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>44000</v>
+        <v>43989</v>
       </c>
       <c r="B115">
         <v>114</v>
       </c>
       <c r="C115">
-        <v>12343</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6792</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>44001</v>
+        <v>43990</v>
       </c>
       <c r="B116">
         <v>115</v>
       </c>
       <c r="C116">
-        <v>11075</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>44002</v>
+        <v>43991</v>
       </c>
       <c r="B117">
         <v>116</v>
       </c>
       <c r="C117">
-        <v>11226</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5180</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>44003</v>
+        <v>43992</v>
       </c>
       <c r="B118">
         <v>117</v>
       </c>
       <c r="C118">
-        <v>6333</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9269</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>44004</v>
+        <v>43993</v>
       </c>
       <c r="B119">
         <v>118</v>
       </c>
       <c r="C119">
-        <v>4044</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11055</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>44005</v>
+        <v>43994</v>
       </c>
       <c r="B120">
         <v>119</v>
       </c>
       <c r="C120">
-        <v>8948</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11027</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>44006</v>
+        <v>43995</v>
       </c>
       <c r="B121">
         <v>120</v>
       </c>
       <c r="C121">
-        <v>11681</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10024</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>44007</v>
+        <v>43996</v>
       </c>
       <c r="B122">
         <v>121</v>
       </c>
       <c r="C122">
-        <v>12555</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7926</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>44008</v>
+        <v>43997</v>
       </c>
       <c r="B123">
         <v>122</v>
       </c>
       <c r="C123">
-        <v>11824</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>44009</v>
+        <v>43998</v>
       </c>
       <c r="B124">
         <v>123</v>
       </c>
       <c r="C124">
-        <v>12236</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9360</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>44010</v>
+        <v>43999</v>
       </c>
       <c r="B125">
         <v>124</v>
       </c>
       <c r="C125">
-        <v>7291</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11715</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>44011</v>
+        <v>44000</v>
       </c>
       <c r="B126">
         <v>125</v>
       </c>
       <c r="C126">
-        <v>4779</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12343</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>44012</v>
+        <v>44001</v>
       </c>
       <c r="B127">
         <v>126</v>
       </c>
       <c r="C127">
-        <v>10424</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11075</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>44013</v>
+        <v>44002</v>
       </c>
       <c r="B128">
         <v>127</v>
       </c>
       <c r="C128">
-        <v>12585</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11226</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>44014</v>
+        <v>44003</v>
       </c>
       <c r="B129">
         <v>128</v>
       </c>
       <c r="C129">
-        <v>12524</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6333</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>44015</v>
+        <v>44004</v>
       </c>
       <c r="B130">
         <v>129</v>
       </c>
       <c r="C130">
-        <v>12371</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4044</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>44016</v>
+        <v>44005</v>
       </c>
       <c r="B131">
         <v>130</v>
       </c>
       <c r="C131">
-        <v>11445</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8948</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>44017</v>
+        <v>44006</v>
       </c>
       <c r="B132">
         <v>131</v>
       </c>
       <c r="C132">
-        <v>7831</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11681</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>44018</v>
+        <v>44007</v>
       </c>
       <c r="B133">
         <v>132</v>
       </c>
       <c r="C133">
-        <v>4614</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12555</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>44019</v>
+        <v>44008</v>
       </c>
       <c r="B134">
         <v>133</v>
       </c>
       <c r="C134">
-        <v>11855</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11824</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>44020</v>
+        <v>44009</v>
       </c>
       <c r="B135">
         <v>134</v>
       </c>
       <c r="C135">
-        <v>13147</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12236</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>44021</v>
+        <v>44010</v>
       </c>
       <c r="B136">
         <v>135</v>
       </c>
       <c r="C136">
-        <v>13179</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7291</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>44022</v>
+        <v>44011</v>
       </c>
       <c r="B137">
         <v>136</v>
       </c>
       <c r="C137">
-        <v>14680</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4779</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>44023</v>
+        <v>44012</v>
       </c>
       <c r="B138">
         <v>137</v>
       </c>
       <c r="C138">
-        <v>14610</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10424</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>44024</v>
+        <v>44013</v>
       </c>
       <c r="B139">
         <v>138</v>
       </c>
       <c r="C139">
-        <v>8633</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12585</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>44025</v>
+        <v>44014</v>
       </c>
       <c r="B140">
         <v>139</v>
       </c>
       <c r="C140">
-        <v>6655</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12524</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>44026</v>
+        <v>44015</v>
       </c>
       <c r="B141">
         <v>140</v>
       </c>
       <c r="C141">
-        <v>14237</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12371</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>44027</v>
+        <v>44016</v>
       </c>
       <c r="B142">
         <v>141</v>
       </c>
       <c r="C142">
-        <v>18440</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11445</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>44028</v>
+        <v>44017</v>
       </c>
       <c r="B143">
         <v>142</v>
       </c>
       <c r="C143">
-        <v>19097</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7831</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>44029</v>
+        <v>44018</v>
       </c>
       <c r="B144">
         <v>143</v>
       </c>
       <c r="C144">
-        <v>18986</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>44030</v>
+        <v>44019</v>
       </c>
       <c r="B145">
         <v>144</v>
       </c>
       <c r="C145">
-        <v>18732</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11855</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>44031</v>
+        <v>44020</v>
       </c>
       <c r="B146">
         <v>145</v>
       </c>
       <c r="C146">
-        <v>14889</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>13147</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>44032</v>
+        <v>44021</v>
       </c>
       <c r="B147">
         <v>146</v>
       </c>
       <c r="C147">
-        <v>8570</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>13179</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>44033</v>
+        <v>44022</v>
       </c>
       <c r="B148">
         <v>147</v>
       </c>
       <c r="C148">
-        <v>17204</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14680</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>44034</v>
+        <v>44023</v>
       </c>
       <c r="B149">
         <v>148</v>
       </c>
       <c r="C149">
-        <v>24877</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14610</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>44035</v>
+        <v>44024</v>
       </c>
       <c r="B150">
         <v>149</v>
       </c>
       <c r="C150">
-        <v>21419</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8633</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>44036</v>
+        <v>44025</v>
       </c>
       <c r="B151">
         <v>150</v>
       </c>
       <c r="C151">
-        <v>22964</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6655</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>44037</v>
+        <v>44026</v>
       </c>
       <c r="B152">
         <v>151</v>
       </c>
       <c r="C152">
-        <v>34127</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14237</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>44038</v>
+        <v>44027</v>
       </c>
       <c r="B153">
         <v>152</v>
       </c>
       <c r="C153">
-        <v>15118</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>18440</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>44039</v>
+        <v>44028</v>
       </c>
       <c r="B154">
         <v>153</v>
       </c>
       <c r="C154">
-        <v>7633</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19097</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>44040</v>
+        <v>44029</v>
       </c>
       <c r="B155">
         <v>154</v>
       </c>
       <c r="C155">
-        <v>21165</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>18986</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>44041</v>
+        <v>44030</v>
       </c>
       <c r="B156">
         <v>155</v>
       </c>
       <c r="C156">
-        <v>22529</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>18732</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>44042</v>
+        <v>44031</v>
       </c>
       <c r="B157">
         <v>156</v>
       </c>
       <c r="C157">
-        <v>23402</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14889</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>44043</v>
+        <v>44032</v>
       </c>
       <c r="B158">
         <v>157</v>
       </c>
       <c r="C158">
-        <v>24977</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8570</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>44044</v>
+        <v>44033</v>
       </c>
       <c r="B159">
         <v>158</v>
       </c>
       <c r="C159">
-        <v>23451</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>17204</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>44045</v>
+        <v>44034</v>
       </c>
       <c r="B160">
         <v>159</v>
       </c>
       <c r="C160">
-        <v>14215</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24877</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>44046</v>
+        <v>44035</v>
       </c>
       <c r="B161">
         <v>160</v>
       </c>
       <c r="C161">
-        <v>8045</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>21419</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>44047</v>
+        <v>44036</v>
       </c>
       <c r="B162">
         <v>161</v>
       </c>
       <c r="C162">
-        <v>20581</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>22964</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>44048</v>
+        <v>44037</v>
       </c>
       <c r="B163">
         <v>162</v>
       </c>
       <c r="C163">
-        <v>26332</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>34127</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>44049</v>
+        <v>44038</v>
       </c>
       <c r="B164">
         <v>163</v>
       </c>
       <c r="C164">
-        <v>24147</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15118</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>44050</v>
+        <v>44039</v>
       </c>
       <c r="B165">
         <v>164</v>
       </c>
       <c r="C165">
-        <v>23946</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7633</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>44051</v>
+        <v>44040</v>
       </c>
       <c r="B166">
         <v>165</v>
       </c>
       <c r="C166">
-        <v>21444</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>21165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>44052</v>
+        <v>44041</v>
       </c>
       <c r="B167">
         <v>166</v>
       </c>
       <c r="C167">
-        <v>13968</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>22529</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>44053</v>
+        <v>44042</v>
       </c>
       <c r="B168">
         <v>167</v>
       </c>
       <c r="C168">
-        <v>6607</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23402</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>44054</v>
+        <v>44043</v>
       </c>
       <c r="B169">
         <v>168</v>
       </c>
       <c r="C169">
-        <v>19511</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24977</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>44055</v>
+        <v>44044</v>
       </c>
       <c r="B170">
         <v>169</v>
       </c>
       <c r="C170">
-        <v>22781</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23451</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>44056</v>
+        <v>44045</v>
       </c>
       <c r="B171">
         <v>170</v>
       </c>
       <c r="C171">
-        <v>22643</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14215</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>44057</v>
+        <v>44046</v>
       </c>
       <c r="B172">
         <v>171</v>
       </c>
       <c r="C172">
-        <v>27787</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8045</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>44058</v>
+        <v>44047</v>
       </c>
       <c r="B173">
         <v>172</v>
       </c>
       <c r="C173">
-        <v>23986</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>20581</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>44059</v>
+        <v>44048</v>
       </c>
       <c r="B174">
         <v>173</v>
       </c>
       <c r="C174">
-        <v>11846</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26332</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>44060</v>
+        <v>44049</v>
       </c>
       <c r="B175">
         <v>174</v>
       </c>
       <c r="C175">
-        <v>6862</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24147</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>44061</v>
+        <v>44050</v>
       </c>
       <c r="B176">
         <v>175</v>
       </c>
       <c r="C176">
-        <v>21344</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23946</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>44062</v>
+        <v>44051</v>
       </c>
       <c r="B177">
         <v>176</v>
       </c>
       <c r="C177">
-        <v>24538</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>21444</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>44063</v>
+        <v>44052</v>
       </c>
       <c r="B178">
         <v>177</v>
       </c>
       <c r="C178">
-        <v>24383</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>13968</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>44064</v>
+        <v>44053</v>
       </c>
       <c r="B179">
         <v>178</v>
       </c>
       <c r="C179">
-        <v>25363</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6607</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>44065</v>
+        <v>44054</v>
       </c>
       <c r="B180">
         <v>179</v>
       </c>
       <c r="C180">
-        <v>22992</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19511</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>44066</v>
+        <v>44055</v>
       </c>
       <c r="B181">
         <v>180</v>
       </c>
       <c r="C181">
-        <v>13274</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>22781</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>44067</v>
+        <v>44056</v>
       </c>
       <c r="B182">
         <v>181</v>
       </c>
       <c r="C182">
-        <v>6491</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>22643</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>44068</v>
+        <v>44057</v>
       </c>
       <c r="B183">
         <v>182</v>
       </c>
       <c r="C183">
-        <v>20479</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>27787</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>44069</v>
+        <v>44058</v>
       </c>
       <c r="B184">
         <v>183</v>
       </c>
       <c r="C184">
-        <v>25754</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23986</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>44070</v>
+        <v>44059</v>
       </c>
       <c r="B185">
         <v>184</v>
       </c>
       <c r="C185">
-        <v>25052</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11846</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>44071</v>
+        <v>44060</v>
       </c>
       <c r="B186">
         <v>185</v>
       </c>
       <c r="C186">
-        <v>26500</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6862</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>44072</v>
+        <v>44061</v>
       </c>
       <c r="B187">
         <v>186</v>
       </c>
       <c r="C187">
-        <v>24043</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>21344</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>44073</v>
+        <v>44062</v>
       </c>
       <c r="B188">
         <v>187</v>
       </c>
       <c r="C188">
-        <v>14670</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24538</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>44074</v>
+        <v>44063</v>
       </c>
       <c r="B189">
         <v>188</v>
       </c>
       <c r="C189">
-        <v>7313</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24383</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>44075</v>
+        <v>44064</v>
       </c>
       <c r="B190">
         <v>189</v>
       </c>
       <c r="C190">
-        <v>22326</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>25363</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>44076</v>
+        <v>44065</v>
       </c>
       <c r="B191">
         <v>190</v>
       </c>
       <c r="C191">
-        <v>26816</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>22992</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>44077</v>
+        <v>44066</v>
       </c>
       <c r="B192">
         <v>191</v>
       </c>
       <c r="C192">
-        <v>23975</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>13274</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>44078</v>
+        <v>44067</v>
       </c>
       <c r="B193">
         <v>192</v>
       </c>
       <c r="C193">
-        <v>25177</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6491</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>44079</v>
+        <v>44068</v>
       </c>
       <c r="B194">
         <v>193</v>
       </c>
       <c r="C194">
-        <v>22380</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>20479</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>44080</v>
+        <v>44069</v>
       </c>
       <c r="B195">
         <v>194</v>
       </c>
       <c r="C195">
-        <v>14871</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>25754</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>44081</v>
+        <v>44070</v>
       </c>
       <c r="B196">
         <v>195</v>
       </c>
       <c r="C196">
-        <v>7247</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>25052</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>44082</v>
+        <v>44071</v>
       </c>
       <c r="B197">
         <v>196</v>
       </c>
       <c r="C197">
-        <v>20522</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26500</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>44083</v>
+        <v>44072</v>
       </c>
       <c r="B198">
         <v>197</v>
       </c>
       <c r="C198">
-        <v>24297</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24043</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>44084</v>
+        <v>44073</v>
       </c>
       <c r="B199">
         <v>198</v>
       </c>
       <c r="C199">
-        <v>25185</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14670</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>44085</v>
+        <v>44074</v>
       </c>
       <c r="B200">
         <v>199</v>
       </c>
       <c r="C200">
-        <v>26149</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7313</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>44086</v>
+        <v>44075</v>
       </c>
       <c r="B201">
         <v>200</v>
       </c>
       <c r="C201">
-        <v>24939</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>22326</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>44087</v>
+        <v>44076</v>
       </c>
       <c r="B202">
         <v>201</v>
       </c>
       <c r="C202">
-        <v>14784</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26816</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>44088</v>
+        <v>44077</v>
       </c>
       <c r="B203">
         <v>202</v>
       </c>
       <c r="C203">
-        <v>7337</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23975</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>44089</v>
+        <v>44078</v>
       </c>
       <c r="B204">
         <v>203</v>
       </c>
       <c r="C204">
-        <v>21049</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>25177</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>44090</v>
+        <v>44079</v>
       </c>
       <c r="B205">
         <v>204</v>
       </c>
       <c r="C205">
-        <v>26520</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>22380</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>44091</v>
+        <v>44080</v>
       </c>
       <c r="B206">
         <v>205</v>
       </c>
       <c r="C206">
-        <v>24125</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14871</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>44092</v>
+        <v>44081</v>
       </c>
       <c r="B207">
         <v>206</v>
       </c>
       <c r="C207">
-        <v>25254</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7247</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>44093</v>
+        <v>44082</v>
       </c>
       <c r="B208">
         <v>207</v>
       </c>
       <c r="C208">
-        <v>24148</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>20522</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>44094</v>
+        <v>44083</v>
       </c>
       <c r="B209">
         <v>208</v>
       </c>
       <c r="C209">
-        <v>13391</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24297</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>44095</v>
+        <v>44084</v>
       </c>
       <c r="B210">
         <v>209</v>
       </c>
       <c r="C210">
-        <v>7940</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>25185</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>44096</v>
+        <v>44085</v>
       </c>
       <c r="B211">
         <v>210</v>
       </c>
       <c r="C211">
-        <v>21978</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26149</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>44097</v>
+        <v>44086</v>
       </c>
       <c r="B212">
         <v>211</v>
       </c>
       <c r="C212">
-        <v>24745</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24939</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>44098</v>
+        <v>44087</v>
       </c>
       <c r="B213">
         <v>212</v>
       </c>
       <c r="C213">
-        <v>24703</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14784</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>44099</v>
+        <v>44088</v>
       </c>
       <c r="B214">
         <v>213</v>
       </c>
       <c r="C214">
-        <v>25494</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7337</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>44100</v>
+        <v>44089</v>
       </c>
       <c r="B215">
         <v>214</v>
       </c>
       <c r="C215">
-        <v>24328</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>21049</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>44101</v>
+        <v>44090</v>
       </c>
       <c r="B216">
         <v>215</v>
       </c>
       <c r="C216">
-        <v>13528</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26520</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>44102</v>
+        <v>44091</v>
       </c>
       <c r="B217">
         <v>216</v>
       </c>
       <c r="C217">
-        <v>6162</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24125</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>44103</v>
+        <v>44092</v>
       </c>
       <c r="B218">
         <v>217</v>
       </c>
       <c r="C218">
-        <v>21330</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>25254</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>44104</v>
+        <v>44093</v>
       </c>
       <c r="B219">
         <v>218</v>
       </c>
       <c r="C219">
-        <v>26021</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24148</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>44105</v>
+        <v>44094</v>
       </c>
       <c r="B220">
         <v>219</v>
       </c>
       <c r="C220">
-        <v>25797</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>13391</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>44106</v>
+        <v>44095</v>
       </c>
       <c r="B221">
         <v>220</v>
       </c>
       <c r="C221">
-        <v>26011</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7940</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>44107</v>
+        <v>44096</v>
       </c>
       <c r="B222">
         <v>221</v>
       </c>
       <c r="C222">
-        <v>24940</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>21978</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>44108</v>
+        <v>44097</v>
       </c>
       <c r="B223">
         <v>222</v>
       </c>
       <c r="C223">
-        <v>13770</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24745</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>44109</v>
+        <v>44098</v>
       </c>
       <c r="B224">
         <v>223</v>
       </c>
       <c r="C224">
-        <v>6537</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24703</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>44110</v>
+        <v>44099</v>
       </c>
       <c r="B225">
         <v>224</v>
       </c>
       <c r="C225">
-        <v>23476</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>25494</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>44111</v>
+        <v>44100</v>
       </c>
       <c r="B226">
         <v>225</v>
       </c>
       <c r="C226">
-        <v>27849</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24328</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>44112</v>
+        <v>44101</v>
       </c>
       <c r="B227">
         <v>226</v>
       </c>
       <c r="C227">
-        <v>30191</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>13528</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>44113</v>
+        <v>44102</v>
       </c>
       <c r="B228">
         <v>227</v>
       </c>
       <c r="C228">
-        <v>29282</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6162</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>44114</v>
+        <v>44103</v>
       </c>
       <c r="B229">
         <v>228</v>
       </c>
       <c r="C229">
-        <v>29284</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>21330</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>44115</v>
+        <v>44104</v>
       </c>
       <c r="B230">
         <v>229</v>
       </c>
       <c r="C230">
-        <v>15709</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26021</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>44116</v>
+        <v>44105</v>
       </c>
       <c r="B231">
         <v>230</v>
       </c>
       <c r="C231">
-        <v>10051</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>25797</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>44117</v>
+        <v>44106</v>
       </c>
       <c r="B232">
         <v>231</v>
       </c>
       <c r="C232">
-        <v>26718</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26011</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>44118</v>
+        <v>44107</v>
       </c>
       <c r="B233">
         <v>232</v>
       </c>
       <c r="C233">
-        <v>31318</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24940</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>44119</v>
+        <v>44108</v>
       </c>
       <c r="B234">
         <v>233</v>
       </c>
       <c r="C234">
-        <v>29857</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>13770</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>44120</v>
+        <v>44109</v>
       </c>
       <c r="B235">
         <v>234</v>
       </c>
       <c r="C235">
-        <v>30431</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6537</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>44121</v>
+        <v>44110</v>
       </c>
       <c r="B236">
         <v>235</v>
       </c>
       <c r="C236">
-        <v>31767</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23476</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>44122</v>
+        <v>44111</v>
       </c>
       <c r="B237">
         <v>236</v>
       </c>
       <c r="C237">
-        <v>19507</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>27849</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>44123</v>
+        <v>44112</v>
       </c>
       <c r="B238">
         <v>237</v>
       </c>
       <c r="C238">
-        <v>8040</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30191</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>44124</v>
+        <v>44113</v>
       </c>
       <c r="B239">
         <v>238</v>
       </c>
       <c r="C239">
-        <v>29845</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>29282</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>44125</v>
+        <v>44114</v>
       </c>
       <c r="B240">
         <v>239</v>
       </c>
       <c r="C240">
-        <v>37025</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>29284</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>44126</v>
+        <v>44115</v>
       </c>
       <c r="B241">
         <v>240</v>
       </c>
       <c r="C241">
-        <v>34466</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15709</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>44127</v>
+        <v>44116</v>
       </c>
       <c r="B242">
         <v>241</v>
       </c>
       <c r="C242">
-        <v>34466</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10051</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>44128</v>
+        <v>44117</v>
       </c>
       <c r="B243">
         <v>242</v>
       </c>
       <c r="C243">
-        <v>41238</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26718</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>44129</v>
+        <v>44118</v>
       </c>
       <c r="B244">
         <v>243</v>
       </c>
       <c r="C244">
-        <v>19346</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31318</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>44130</v>
+        <v>44119</v>
       </c>
       <c r="B245">
         <v>244</v>
       </c>
       <c r="C245">
-        <v>8709</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>29857</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>44131</v>
+        <v>44120</v>
       </c>
       <c r="B246">
         <v>245</v>
       </c>
       <c r="C246">
-        <v>31828</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30431</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>44132</v>
+        <v>44121</v>
       </c>
       <c r="B247">
         <v>246</v>
       </c>
       <c r="C247">
-        <v>37283</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31767</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>44133</v>
+        <v>44122</v>
       </c>
       <c r="B248">
         <v>247</v>
       </c>
       <c r="C248">
-        <v>36069</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19507</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>44134</v>
+        <v>44123</v>
       </c>
       <c r="B249">
         <v>248</v>
       </c>
       <c r="C249">
-        <v>36689</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8040</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>44135</v>
+        <v>44124</v>
       </c>
       <c r="B250">
         <v>249</v>
       </c>
       <c r="C250">
-        <v>36181</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>29845</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>44136</v>
+        <v>44125</v>
       </c>
       <c r="B251">
         <v>250</v>
       </c>
       <c r="C251">
-        <v>21556</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37025</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>44137</v>
+        <v>44126</v>
       </c>
       <c r="B252">
         <v>251</v>
       </c>
       <c r="C252">
-        <v>10566</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>34466</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>44138</v>
+        <v>44127</v>
       </c>
       <c r="B253">
         <v>252</v>
       </c>
       <c r="C253">
-        <v>30439</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>34466</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>44139</v>
+        <v>44128</v>
       </c>
       <c r="B254">
         <v>253</v>
       </c>
       <c r="C254">
-        <v>36558</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>41238</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>44140</v>
+        <v>44129</v>
       </c>
       <c r="B255">
         <v>254</v>
       </c>
       <c r="C255">
-        <v>37742</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19346</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>44141</v>
+        <v>44130</v>
       </c>
       <c r="B256">
         <v>255</v>
       </c>
       <c r="C256">
-        <v>38636</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8709</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>44142</v>
+        <v>44131</v>
       </c>
       <c r="B257">
         <v>256</v>
       </c>
       <c r="C257">
-        <v>36848</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31828</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>44143</v>
+        <v>44132</v>
       </c>
       <c r="B258">
         <v>257</v>
       </c>
       <c r="C258">
-        <v>21552</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37283</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>44144</v>
+        <v>44133</v>
       </c>
       <c r="B259">
         <v>258</v>
       </c>
       <c r="C259">
-        <v>11445</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36069</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>44145</v>
+        <v>44134</v>
       </c>
       <c r="B260">
         <v>259</v>
       </c>
       <c r="C260">
-        <v>31005</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36689</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
-        <v>44146</v>
+        <v>44135</v>
       </c>
       <c r="B261">
         <v>260</v>
       </c>
       <c r="C261">
-        <v>38863</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36181</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
-        <v>44147</v>
+        <v>44136</v>
       </c>
       <c r="B262">
         <v>261</v>
       </c>
       <c r="C262">
-        <v>35762</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>21556</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
-        <v>44148</v>
+        <v>44137</v>
       </c>
       <c r="B263">
         <v>262</v>
       </c>
       <c r="C263">
-        <v>37136</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10566</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
-        <v>44149</v>
+        <v>44138</v>
       </c>
       <c r="B264">
         <v>263</v>
       </c>
       <c r="C264">
-        <v>37040</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30439</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
-        <v>44150</v>
+        <v>44139</v>
       </c>
       <c r="B265">
         <v>264</v>
       </c>
       <c r="C265">
-        <v>23166</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36558</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
-        <v>44151</v>
+        <v>44140</v>
       </c>
       <c r="B266">
         <v>265</v>
       </c>
       <c r="C266">
-        <v>11266</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37742</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
-        <v>44152</v>
+        <v>44141</v>
       </c>
       <c r="B267">
         <v>266</v>
       </c>
       <c r="C267">
-        <v>31082</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38636</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
-        <v>44153</v>
+        <v>44142</v>
       </c>
       <c r="B268">
         <v>267</v>
       </c>
       <c r="C268">
-        <v>37906</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36848</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
-        <v>44154</v>
+        <v>44143</v>
       </c>
       <c r="B269">
         <v>268</v>
       </c>
       <c r="C269">
-        <v>36963</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>21552</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
-        <v>44155</v>
+        <v>44144</v>
       </c>
       <c r="B270">
         <v>269</v>
       </c>
       <c r="C270">
-        <v>36453</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11445</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
-        <v>44156</v>
+        <v>44145</v>
       </c>
       <c r="B271">
         <v>270</v>
       </c>
       <c r="C271">
-        <v>33221</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31005</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
-        <v>44157</v>
+        <v>44146</v>
       </c>
       <c r="B272">
         <v>271</v>
       </c>
       <c r="C272">
-        <v>20790</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38863</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
-        <v>44158</v>
+        <v>44147</v>
       </c>
       <c r="B273">
         <v>272</v>
       </c>
       <c r="C273">
-        <v>9938</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>35762</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
-        <v>44159</v>
+        <v>44148</v>
       </c>
       <c r="B274">
         <v>273</v>
       </c>
       <c r="C274">
-        <v>30740</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37136</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
-        <v>44160</v>
+        <v>44149</v>
       </c>
       <c r="B275">
         <v>274</v>
       </c>
       <c r="C275">
-        <v>35575</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37040</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
-        <v>44161</v>
+        <v>44150</v>
       </c>
       <c r="B276">
         <v>275</v>
       </c>
       <c r="C276">
-        <v>36891</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23166</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
-        <v>44162</v>
+        <v>44151</v>
       </c>
       <c r="B277">
         <v>276</v>
       </c>
       <c r="C277">
-        <v>36649</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11266</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
-        <v>44163</v>
+        <v>44152</v>
       </c>
       <c r="B278">
         <v>277</v>
       </c>
       <c r="C278">
-        <v>33021</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31082</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
-        <v>44164</v>
+        <v>44153</v>
       </c>
       <c r="B279">
         <v>278</v>
       </c>
       <c r="C279">
-        <v>16225</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37906</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
-        <v>44165</v>
+        <v>44154</v>
       </c>
       <c r="B280">
         <v>279</v>
       </c>
       <c r="C280">
-        <v>9785</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36963</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
-        <v>44166</v>
+        <v>44155</v>
       </c>
       <c r="B281">
         <v>280</v>
       </c>
       <c r="C281">
-        <v>14625</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36453</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
-        <v>44167</v>
+        <v>44156</v>
       </c>
       <c r="B282">
         <v>281</v>
       </c>
       <c r="C282">
-        <v>15701</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33221</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
-        <v>44168</v>
+        <v>44157</v>
       </c>
       <c r="B283">
         <v>282</v>
       </c>
       <c r="C283">
-        <v>32120</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>20790</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
-        <v>44169</v>
+        <v>44158</v>
       </c>
       <c r="B284">
         <v>283</v>
       </c>
       <c r="C284">
-        <v>35467</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9938</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
-        <v>44170</v>
+        <v>44159</v>
       </c>
       <c r="B285">
         <v>284</v>
       </c>
       <c r="C285">
-        <v>32445</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30740</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
-        <v>44171</v>
+        <v>44160</v>
       </c>
       <c r="B286">
         <v>285</v>
       </c>
       <c r="C286">
-        <v>17556</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>35575</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
-        <v>44172</v>
+        <v>44161</v>
       </c>
       <c r="B287">
         <v>286</v>
       </c>
       <c r="C287">
-        <v>8791</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36891</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
-        <v>44173</v>
+        <v>44162</v>
       </c>
       <c r="B288">
         <v>287</v>
       </c>
       <c r="C288">
-        <v>29400</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36649</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
-        <v>44174</v>
+        <v>44163</v>
       </c>
       <c r="B289">
         <v>288</v>
       </c>
       <c r="C289">
-        <v>31458</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33021</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
-        <v>44175</v>
+        <v>44164</v>
       </c>
       <c r="B290">
         <v>289</v>
       </c>
       <c r="C290">
-        <v>31437</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16225</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
-        <v>44176</v>
+        <v>44165</v>
       </c>
       <c r="B291">
         <v>290</v>
       </c>
       <c r="C291">
-        <v>30246</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9785</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
-        <v>44177</v>
+        <v>44166</v>
       </c>
       <c r="B292">
         <v>291</v>
       </c>
       <c r="C292">
-        <v>26399</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14625</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
-        <v>44178</v>
+        <v>44167</v>
       </c>
       <c r="B293">
         <v>292</v>
       </c>
       <c r="C293">
-        <v>14859</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15701</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
-        <v>44179</v>
+        <v>44168</v>
       </c>
       <c r="B294">
         <v>293</v>
       </c>
       <c r="C294">
-        <v>8059</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>32120</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
-        <v>44180</v>
+        <v>44169</v>
       </c>
       <c r="B295">
         <v>294</v>
       </c>
       <c r="C295">
-        <v>25185</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>35467</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
-        <v>44181</v>
+        <v>44170</v>
       </c>
       <c r="B296">
         <v>295</v>
       </c>
       <c r="C296">
-        <v>44601</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>32445</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
-        <v>44182</v>
+        <v>44171</v>
       </c>
       <c r="B297">
         <v>296</v>
       </c>
       <c r="C297">
-        <v>28281</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>17556</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
-        <v>44183</v>
+        <v>44172</v>
       </c>
       <c r="B298">
         <v>297</v>
       </c>
       <c r="C298">
-        <v>27529</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8791</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
-        <v>44184</v>
+        <v>44173</v>
       </c>
       <c r="B299">
         <v>298</v>
       </c>
       <c r="C299">
-        <v>25826</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>29400</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
-        <v>44185</v>
+        <v>44174</v>
       </c>
       <c r="B300">
         <v>299</v>
       </c>
       <c r="C300">
-        <v>12293</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31458</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
-        <v>44186</v>
+        <v>44175</v>
       </c>
       <c r="B301">
         <v>300</v>
       </c>
       <c r="C301">
-        <v>7185</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31437</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
-        <v>44187</v>
+        <v>44176</v>
       </c>
       <c r="B302">
         <v>301</v>
       </c>
       <c r="C302">
-        <v>23844</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30246</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
-        <v>44188</v>
+        <v>44177</v>
       </c>
       <c r="B303">
         <v>302</v>
       </c>
       <c r="C303">
-        <v>25840</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26399</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
-        <v>44189</v>
+        <v>44178</v>
       </c>
       <c r="B304">
         <v>303</v>
       </c>
       <c r="C304">
-        <v>32914</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14859</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
-        <v>44190</v>
+        <v>44179</v>
       </c>
       <c r="B305">
         <v>304</v>
       </c>
       <c r="C305">
-        <v>16862</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8059</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
-        <v>44191</v>
+        <v>44180</v>
       </c>
       <c r="B306">
         <v>305</v>
       </c>
       <c r="C306">
-        <v>4352</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>25185</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
-        <v>44192</v>
+        <v>44181</v>
       </c>
       <c r="B307">
         <v>306</v>
       </c>
       <c r="C307">
-        <v>7783</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>44601</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
-        <v>44193</v>
+        <v>44182</v>
       </c>
       <c r="B308">
         <v>307</v>
       </c>
       <c r="C308">
-        <v>7841</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>28281</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
-        <v>44194</v>
+        <v>44183</v>
       </c>
       <c r="B309">
         <v>308</v>
       </c>
       <c r="C309">
-        <v>24591</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>27529</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
-        <v>44195</v>
+        <v>44184</v>
       </c>
       <c r="B310">
         <v>309</v>
       </c>
       <c r="C310">
-        <v>24864</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>25826</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
-        <v>44196</v>
+        <v>44185</v>
       </c>
       <c r="B311">
         <v>310</v>
       </c>
       <c r="C311">
-        <v>21528</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12293</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
-        <v>44197</v>
+        <v>44186</v>
       </c>
       <c r="B312">
         <v>311</v>
       </c>
       <c r="C312">
-        <v>15957</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7185</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
-        <v>44198</v>
+        <v>44187</v>
       </c>
       <c r="B313">
         <v>312</v>
       </c>
       <c r="C313">
-        <v>4438</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23844</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
-        <v>44199</v>
+        <v>44188</v>
       </c>
       <c r="B314">
         <v>313</v>
       </c>
       <c r="C314">
-        <v>9829</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>25840</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
-        <v>44200</v>
+        <v>44189</v>
       </c>
       <c r="B315">
         <v>314</v>
       </c>
       <c r="C315">
-        <v>9688</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>32914</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
-        <v>44201</v>
+        <v>44190</v>
       </c>
       <c r="B316">
         <v>315</v>
       </c>
       <c r="C316">
-        <v>31022</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16862</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
-        <v>44202</v>
+        <v>44191</v>
       </c>
       <c r="B317">
         <v>316</v>
       </c>
       <c r="C317">
-        <v>34343</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4352</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
-        <v>44203</v>
+        <v>44192</v>
       </c>
       <c r="B318">
         <v>317</v>
       </c>
       <c r="C318">
-        <v>31393</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7783</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
-        <v>44204</v>
+        <v>44193</v>
       </c>
       <c r="B319">
         <v>318</v>
       </c>
       <c r="C319">
-        <v>39389</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7841</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
-        <v>44205</v>
+        <v>44194</v>
       </c>
       <c r="B320">
         <v>319</v>
       </c>
       <c r="C320">
-        <v>28319</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24591</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
-        <v>44206</v>
+        <v>44195</v>
       </c>
       <c r="B321">
         <v>320</v>
       </c>
       <c r="C321">
-        <v>15797</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24864</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
-        <v>44207</v>
+        <v>44196</v>
       </c>
       <c r="B322">
         <v>321</v>
       </c>
       <c r="C322">
-        <v>7005</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>21528</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
-        <v>44208</v>
+        <v>44197</v>
       </c>
       <c r="B323">
         <v>322</v>
       </c>
       <c r="C323">
-        <v>24299</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15957</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
-        <v>44209</v>
+        <v>44198</v>
       </c>
       <c r="B324">
         <v>323</v>
       </c>
       <c r="C324">
-        <v>52464</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4438</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
-        <v>44210</v>
+        <v>44199</v>
       </c>
       <c r="B325">
         <v>324</v>
       </c>
       <c r="C325">
-        <v>32666</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9829</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
-        <v>44211</v>
+        <v>44200</v>
       </c>
       <c r="B326">
         <v>325</v>
       </c>
       <c r="C326">
-        <v>31079</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9688</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
-        <v>44212</v>
+        <v>44201</v>
       </c>
       <c r="B327">
         <v>326</v>
       </c>
       <c r="C327">
-        <v>27579</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31022</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
-        <v>44213</v>
+        <v>44202</v>
       </c>
       <c r="B328">
         <v>327</v>
       </c>
       <c r="C328">
-        <v>14916</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>34343</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
-        <v>44214</v>
+        <v>44203</v>
       </c>
       <c r="B329">
         <v>328</v>
       </c>
       <c r="C329">
-        <v>8901</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31393</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
-        <v>44215</v>
+        <v>44204</v>
       </c>
       <c r="B330">
         <v>329</v>
       </c>
       <c r="C330">
-        <v>28492</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>39389</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
-        <v>44216</v>
+        <v>44205</v>
       </c>
       <c r="B331">
         <v>330</v>
       </c>
       <c r="C331">
-        <v>32809</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>28319</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
-        <v>44217</v>
+        <v>44206</v>
       </c>
       <c r="B332">
         <v>331</v>
       </c>
       <c r="C332">
-        <v>30026</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15797</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
-        <v>44218</v>
+        <v>44207</v>
       </c>
       <c r="B333">
         <v>332</v>
       </c>
       <c r="C333">
-        <v>29611</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7005</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
-        <v>44219</v>
+        <v>44208</v>
       </c>
       <c r="B334">
         <v>333</v>
       </c>
       <c r="C334">
-        <v>26744</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24299</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
-        <v>44220</v>
+        <v>44209</v>
       </c>
       <c r="B335">
         <v>334</v>
       </c>
       <c r="C335">
-        <v>14502</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>52464</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
-        <v>44221</v>
+        <v>44210</v>
       </c>
       <c r="B336">
         <v>335</v>
       </c>
       <c r="C336">
-        <v>9119</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>32666</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
-        <v>44222</v>
+        <v>44211</v>
       </c>
       <c r="B337">
         <v>336</v>
       </c>
       <c r="C337">
-        <v>29082</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31079</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
-        <v>44223</v>
+        <v>44212</v>
       </c>
       <c r="B338">
         <v>337</v>
       </c>
       <c r="C338">
-        <v>33215</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>27579</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
-        <v>44224</v>
+        <v>44213</v>
       </c>
       <c r="B339">
         <v>338</v>
       </c>
       <c r="C339">
-        <v>31415</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14916</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
-        <v>44225</v>
+        <v>44214</v>
       </c>
       <c r="B340">
         <v>339</v>
       </c>
       <c r="C340">
-        <v>32093</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8901</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
-        <v>44226</v>
+        <v>44215</v>
       </c>
       <c r="B341">
         <v>340</v>
       </c>
       <c r="C341">
-        <v>33597</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>28492</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
-        <v>44227</v>
+        <v>44216</v>
       </c>
       <c r="B342">
         <v>341</v>
       </c>
       <c r="C342">
-        <v>14610</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>32809</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
-        <v>44228</v>
+        <v>44217</v>
       </c>
       <c r="B343">
         <v>342</v>
       </c>
       <c r="C343">
-        <v>8995</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30026</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
-        <v>44229</v>
+        <v>44218</v>
       </c>
       <c r="B344">
         <v>343</v>
       </c>
       <c r="C344">
-        <v>30467</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>29611</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
-        <v>44230</v>
+        <v>44219</v>
       </c>
       <c r="B345">
         <v>344</v>
       </c>
       <c r="C345">
-        <v>33922</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26744</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
-        <v>44231</v>
+        <v>44220</v>
       </c>
       <c r="B346">
         <v>345</v>
       </c>
       <c r="C346">
-        <v>32501</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14502</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
-        <v>44232</v>
+        <v>44221</v>
       </c>
       <c r="B347">
         <v>346</v>
       </c>
       <c r="C347">
-        <v>31969</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9119</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
-        <v>44233</v>
+        <v>44222</v>
       </c>
       <c r="B348">
         <v>347</v>
       </c>
       <c r="C348">
-        <v>27173</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>29082</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
-        <v>44234</v>
+        <v>44223</v>
       </c>
       <c r="B349">
         <v>348</v>
       </c>
       <c r="C349">
-        <v>15543</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33215</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
-        <v>44235</v>
+        <v>44224</v>
       </c>
       <c r="B350">
         <v>349</v>
       </c>
       <c r="C350">
-        <v>9520</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31415</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
-        <v>44236</v>
+        <v>44225</v>
       </c>
       <c r="B351">
         <v>350</v>
       </c>
       <c r="C351">
-        <v>30395</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>32093</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
-        <v>44237</v>
+        <v>44226</v>
       </c>
       <c r="B352">
         <v>351</v>
       </c>
       <c r="C352">
-        <v>34001</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33597</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
-        <v>44238</v>
+        <v>44227</v>
       </c>
       <c r="B353">
         <v>352</v>
       </c>
       <c r="C353">
-        <v>31645</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14610</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
-        <v>44239</v>
+        <v>44228</v>
       </c>
       <c r="B354">
         <v>353</v>
       </c>
       <c r="C354">
-        <v>30874</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8995</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
-        <v>44240</v>
+        <v>44229</v>
       </c>
       <c r="B355">
         <v>354</v>
       </c>
       <c r="C355">
-        <v>28572</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30467</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
-        <v>44241</v>
+        <v>44230</v>
       </c>
       <c r="B356">
         <v>355</v>
       </c>
       <c r="C356">
-        <v>14620</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33922</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
-        <v>44242</v>
+        <v>44231</v>
       </c>
       <c r="B357">
         <v>356</v>
       </c>
       <c r="C357">
-        <v>9775</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>32501</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
-        <v>44243</v>
+        <v>44232</v>
       </c>
       <c r="B358">
         <v>357</v>
       </c>
       <c r="C358">
-        <v>32789</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31969</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
-        <v>44244</v>
+        <v>44233</v>
       </c>
       <c r="B359">
         <v>358</v>
       </c>
       <c r="C359">
-        <v>2815</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>27173</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
-        <v>44245</v>
+        <v>44234</v>
       </c>
       <c r="B360">
         <v>359</v>
       </c>
       <c r="C360">
-        <v>35596</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15543</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
-        <v>44246</v>
+        <v>44235</v>
       </c>
       <c r="B361">
         <v>360</v>
       </c>
       <c r="C361">
-        <v>34511</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9520</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
-        <v>44247</v>
+        <v>44236</v>
       </c>
       <c r="B362">
         <v>361</v>
       </c>
       <c r="C362">
-        <v>37870</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30395</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
-        <v>44248</v>
+        <v>44237</v>
       </c>
       <c r="B363">
         <v>362</v>
       </c>
       <c r="C363">
-        <v>16645</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>34001</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
-        <v>44249</v>
+        <v>44238</v>
       </c>
       <c r="B364">
         <v>363</v>
       </c>
       <c r="C364">
-        <v>10255</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31645</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
-        <v>44250</v>
+        <v>44239</v>
       </c>
       <c r="B365">
         <v>364</v>
       </c>
       <c r="C365">
-        <v>32980</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30874</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
-        <v>44251</v>
+        <v>44240</v>
       </c>
       <c r="B366">
         <v>365</v>
       </c>
       <c r="C366">
-        <v>34364</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>28572</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
-        <v>44252</v>
+        <v>44241</v>
       </c>
       <c r="B367">
         <v>366</v>
       </c>
       <c r="C367">
-        <v>36847</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14620</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
-        <v>44253</v>
+        <v>44242</v>
       </c>
       <c r="B368">
         <v>367</v>
       </c>
       <c r="C368">
-        <v>35876</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9775</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
-        <v>44254</v>
+        <v>44243</v>
       </c>
       <c r="B369">
         <v>368</v>
       </c>
       <c r="C369">
-        <v>31145</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>32789</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
-        <v>44255</v>
+        <v>44244</v>
       </c>
       <c r="B370">
         <v>369</v>
       </c>
       <c r="C370">
-        <v>17491</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
-        <v>44256</v>
+        <v>44245</v>
       </c>
       <c r="B371">
         <v>370</v>
       </c>
       <c r="C371">
-        <v>11593</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>35596</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
-        <v>44257</v>
+        <v>44246</v>
       </c>
       <c r="B372">
         <v>371</v>
       </c>
       <c r="C372">
-        <v>33548</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>34511</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
-        <v>44258</v>
+        <v>44247</v>
       </c>
       <c r="B373">
         <v>372</v>
       </c>
       <c r="C373">
-        <v>35316</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37870</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
-        <v>44259</v>
+        <v>44248</v>
       </c>
       <c r="B374">
         <v>373</v>
       </c>
       <c r="C374">
-        <v>35949</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16645</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
-        <v>44260</v>
+        <v>44249</v>
       </c>
       <c r="B375">
         <v>374</v>
       </c>
       <c r="C375">
-        <v>36337</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10255</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
-        <v>44261</v>
+        <v>44250</v>
       </c>
       <c r="B376">
         <v>375</v>
       </c>
       <c r="C376">
-        <v>34045</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>32980</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
-        <v>44262</v>
+        <v>44251</v>
       </c>
       <c r="B377">
         <v>376</v>
       </c>
       <c r="C377">
-        <v>18175</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>34364</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
-        <v>44263</v>
+        <v>44252</v>
       </c>
       <c r="B378">
         <v>377</v>
       </c>
       <c r="C378">
-        <v>10440</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36847</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
-        <v>44264</v>
+        <v>44253</v>
       </c>
       <c r="B379">
         <v>378</v>
       </c>
       <c r="C379">
-        <v>35619</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>35876</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
-        <v>44265</v>
+        <v>44254</v>
       </c>
       <c r="B380">
         <v>379</v>
       </c>
       <c r="C380">
-        <v>37073</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31145</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
-        <v>44266</v>
+        <v>44255</v>
       </c>
       <c r="B381">
         <v>380</v>
       </c>
       <c r="C381">
-        <v>38255</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>17491</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
-        <v>44267</v>
+        <v>44256</v>
       </c>
       <c r="B382">
         <v>381</v>
       </c>
       <c r="C382">
-        <v>37583</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11593</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
-        <v>44268</v>
+        <v>44257</v>
       </c>
       <c r="B383">
         <v>382</v>
       </c>
       <c r="C383">
-        <v>54520</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33548</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
-        <v>44269</v>
+        <v>44258</v>
       </c>
       <c r="B384">
         <v>383</v>
       </c>
       <c r="C384">
-        <v>20585</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>35316</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
-        <v>44270</v>
+        <v>44259</v>
       </c>
       <c r="B385">
         <v>384</v>
       </c>
       <c r="C385">
-        <v>12217</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>35949</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
-        <v>44271</v>
+        <v>44260</v>
       </c>
       <c r="B386">
         <v>385</v>
       </c>
       <c r="C386">
-        <v>38754</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36337</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
-        <v>44272</v>
+        <v>44261</v>
       </c>
       <c r="B387">
         <v>386</v>
       </c>
       <c r="C387">
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>34045</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
-        <v>44273</v>
+        <v>44262</v>
       </c>
       <c r="B388">
         <v>387</v>
       </c>
       <c r="C388">
-        <v>38385</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>18175</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
-        <v>44274</v>
+        <v>44263</v>
       </c>
       <c r="B389">
         <v>388</v>
       </c>
       <c r="C389">
-        <v>38738</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10440</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
-        <v>44275</v>
+        <v>44264</v>
       </c>
       <c r="B390">
         <v>389</v>
       </c>
       <c r="C390">
-        <v>37532</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>35619</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
-        <v>44276</v>
+        <v>44265</v>
       </c>
       <c r="B391">
         <v>390</v>
       </c>
       <c r="C391">
-        <v>20392</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37073</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
-        <v>44277</v>
+        <v>44266</v>
       </c>
       <c r="B392">
         <v>391</v>
       </c>
       <c r="C392">
-        <v>13552</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38255</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
-        <v>44278</v>
+        <v>44267</v>
       </c>
       <c r="B393">
         <v>392</v>
       </c>
       <c r="C393">
-        <v>38700</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37583</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
-        <v>44279</v>
+        <v>44268</v>
       </c>
       <c r="B394">
         <v>393</v>
       </c>
       <c r="C394">
-        <v>40241</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>54520</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
-        <v>44280</v>
+        <v>44269</v>
       </c>
       <c r="B395">
         <v>394</v>
       </c>
       <c r="C395">
-        <v>41979</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>20585</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
-        <v>44281</v>
+        <v>44270</v>
       </c>
       <c r="B396">
         <v>395</v>
       </c>
       <c r="C396">
-        <v>40714</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12217</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
-        <v>44282</v>
+        <v>44271</v>
       </c>
       <c r="B397">
         <v>396</v>
       </c>
       <c r="C397">
-        <v>37144</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38754</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
-        <v>44283</v>
+        <v>44272</v>
       </c>
       <c r="B398">
         <v>397</v>
       </c>
       <c r="C398">
-        <v>21477</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>39902</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
-        <v>44284</v>
+        <v>44273</v>
       </c>
       <c r="B399">
         <v>398</v>
       </c>
       <c r="C399">
-        <v>14355</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38385</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
-        <v>44285</v>
+        <v>44274</v>
       </c>
       <c r="B400">
         <v>399</v>
       </c>
       <c r="C400">
-        <v>40387</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38738</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
-        <v>44286</v>
+        <v>44275</v>
       </c>
       <c r="B401">
         <v>400</v>
       </c>
       <c r="C401">
-        <v>41554</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37532</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
-        <v>44287</v>
+        <v>44276</v>
       </c>
       <c r="B402">
         <v>401</v>
       </c>
       <c r="C402">
-        <v>41982</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>20392</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
-        <v>44288</v>
+        <v>44277</v>
       </c>
       <c r="B403">
         <v>402</v>
       </c>
       <c r="C403">
-        <v>39734</v>
-      </c>
-    </row>
-    <row r="404" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>13552</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
-        <v>44289</v>
+        <v>44278</v>
       </c>
       <c r="B404">
         <v>403</v>
       </c>
       <c r="C404">
-        <v>37343</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38700</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
-        <v>44290</v>
+        <v>44279</v>
       </c>
       <c r="B405">
         <v>404</v>
       </c>
       <c r="C405">
-        <v>21647</v>
-      </c>
-    </row>
-    <row r="406" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>40241</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
-        <v>44291</v>
+        <v>44280</v>
       </c>
       <c r="B406">
         <v>405</v>
       </c>
       <c r="C406">
-        <v>14303</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>41979</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
-        <v>44292</v>
+        <v>44281</v>
       </c>
       <c r="B407">
         <v>406</v>
       </c>
       <c r="C407">
-        <v>37530</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>40714</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
-        <v>44293</v>
+        <v>44282</v>
       </c>
       <c r="B408">
         <v>407</v>
       </c>
       <c r="C408">
-        <v>39966</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37144</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
-        <v>44294</v>
+        <v>44283</v>
       </c>
       <c r="B409">
         <v>408</v>
       </c>
       <c r="C409">
-        <v>40492</v>
-      </c>
-    </row>
-    <row r="410" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>21477</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
-        <v>44295</v>
+        <v>44284</v>
       </c>
       <c r="B410">
         <v>409</v>
       </c>
       <c r="C410">
-        <v>39510</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14355</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
-        <v>44296</v>
+        <v>44285</v>
       </c>
       <c r="B411">
         <v>410</v>
       </c>
       <c r="C411">
-        <v>35665</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>40387</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
-        <v>44297</v>
+        <v>44286</v>
       </c>
       <c r="B412">
         <v>411</v>
       </c>
       <c r="C412">
-        <v>21314</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>41554</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
-        <v>44298</v>
+        <v>44287</v>
       </c>
       <c r="B413">
         <v>412</v>
       </c>
       <c r="C413">
-        <v>12647</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>41982</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
-        <v>44299</v>
+        <v>44288</v>
       </c>
       <c r="B414">
         <v>413</v>
       </c>
       <c r="C414">
-        <v>35795</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>39734</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
-        <v>44300</v>
+        <v>44289</v>
       </c>
       <c r="B415">
         <v>414</v>
       </c>
       <c r="C415">
-        <v>37206</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37343</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
-        <v>44301</v>
+        <v>44290</v>
       </c>
       <c r="B416">
         <v>415</v>
       </c>
       <c r="C416">
-        <v>37517</v>
-      </c>
-    </row>
-    <row r="417" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>21647</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
-        <v>44302</v>
+        <v>44291</v>
       </c>
       <c r="B417">
         <v>416</v>
       </c>
       <c r="C417">
-        <v>36521</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14303</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
-        <v>44303</v>
+        <v>44292</v>
       </c>
       <c r="B418">
         <v>417</v>
       </c>
       <c r="C418">
-        <v>35669</v>
-      </c>
-    </row>
-    <row r="419" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37530</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
-        <v>44304</v>
+        <v>44293</v>
       </c>
       <c r="B419">
         <v>418</v>
       </c>
       <c r="C419">
-        <v>19419</v>
-      </c>
-    </row>
-    <row r="420" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>39966</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
-        <v>44305</v>
+        <v>44294</v>
       </c>
       <c r="B420">
         <v>419</v>
       </c>
       <c r="C420">
-        <v>11915</v>
-      </c>
-    </row>
-    <row r="421" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>40492</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
-        <v>44306</v>
+        <v>44295</v>
       </c>
       <c r="B421">
         <v>420</v>
       </c>
       <c r="C421">
-        <v>36120</v>
-      </c>
-    </row>
-    <row r="422" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>39510</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
-        <v>44307</v>
+        <v>44296</v>
       </c>
       <c r="B422">
         <v>421</v>
       </c>
       <c r="C422">
-        <v>34844</v>
-      </c>
-    </row>
-    <row r="423" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>35665</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
-        <v>44308</v>
+        <v>44297</v>
       </c>
       <c r="B423">
         <v>422</v>
       </c>
       <c r="C423">
-        <v>36942</v>
-      </c>
-    </row>
-    <row r="424" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>21314</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
-        <v>44309</v>
+        <v>44298</v>
       </c>
       <c r="B424">
         <v>423</v>
       </c>
       <c r="C424">
-        <v>37309</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12647</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
-        <v>44310</v>
+        <v>44299</v>
       </c>
       <c r="B425">
         <v>424</v>
       </c>
       <c r="C425">
-        <v>33423</v>
-      </c>
-    </row>
-    <row r="426" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>35795</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
-        <v>44311</v>
+        <v>44300</v>
       </c>
       <c r="B426">
         <v>425</v>
       </c>
       <c r="C426">
-        <v>17579</v>
-      </c>
-    </row>
-    <row r="427" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37206</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
-        <v>44312</v>
+        <v>44301</v>
       </c>
       <c r="B427">
         <v>426</v>
       </c>
       <c r="C427">
-        <v>11714</v>
-      </c>
-    </row>
-    <row r="428" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37517</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
-        <v>44313</v>
+        <v>44302</v>
       </c>
       <c r="B428">
         <v>427</v>
       </c>
       <c r="C428">
-        <v>32290</v>
-      </c>
-    </row>
-    <row r="429" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36521</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
-        <v>44314</v>
+        <v>44303</v>
       </c>
       <c r="B429">
         <v>428</v>
       </c>
       <c r="C429">
-        <v>35290</v>
-      </c>
-    </row>
-    <row r="430" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>35669</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
-        <v>44315</v>
+        <v>44304</v>
       </c>
       <c r="B430">
         <v>429</v>
       </c>
       <c r="C430">
-        <v>35442</v>
-      </c>
-    </row>
-    <row r="431" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19419</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
-        <v>44316</v>
+        <v>44305</v>
       </c>
       <c r="B431">
         <v>430</v>
       </c>
       <c r="C431">
-        <v>31991</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11915</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
-        <v>44317</v>
+        <v>44306</v>
       </c>
       <c r="B432">
         <v>431</v>
       </c>
       <c r="C432">
-        <v>16438</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36120</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
-        <v>44318</v>
+        <v>44307</v>
       </c>
       <c r="B433">
         <v>432</v>
       </c>
       <c r="C433">
-        <v>11600</v>
-      </c>
-    </row>
-    <row r="434" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>34844</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
-        <v>44319</v>
+        <v>44308</v>
       </c>
       <c r="B434">
         <v>433</v>
       </c>
       <c r="C434">
-        <v>5992</v>
-      </c>
-    </row>
-    <row r="435" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36942</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
-        <v>44320</v>
+        <v>44309</v>
       </c>
       <c r="B435">
         <v>434</v>
       </c>
       <c r="C435">
-        <v>14061</v>
-      </c>
-    </row>
-    <row r="436" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37309</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
-        <v>44321</v>
+        <v>44310</v>
       </c>
       <c r="B436">
         <v>435</v>
       </c>
       <c r="C436">
-        <v>36982</v>
-      </c>
-    </row>
-    <row r="437" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33423</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
-        <v>44322</v>
+        <v>44311</v>
       </c>
       <c r="B437">
         <v>436</v>
       </c>
       <c r="C437">
-        <v>38477</v>
-      </c>
-    </row>
-    <row r="438" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>17579</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
-        <v>44323</v>
+        <v>44312</v>
       </c>
       <c r="B438">
         <v>437</v>
       </c>
       <c r="C438">
-        <v>38489</v>
-      </c>
-    </row>
-    <row r="439" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11714</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
-        <v>44324</v>
+        <v>44313</v>
       </c>
       <c r="B439">
         <v>438</v>
       </c>
       <c r="C439">
-        <v>37457</v>
-      </c>
-    </row>
-    <row r="440" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>32290</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
-        <v>44325</v>
+        <v>44314</v>
       </c>
       <c r="B440">
         <v>439</v>
       </c>
       <c r="C440">
-        <v>20463</v>
-      </c>
-    </row>
-    <row r="441" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>35290</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
-        <v>44326</v>
+        <v>44315</v>
       </c>
       <c r="B441">
         <v>440</v>
       </c>
       <c r="C441">
-        <v>10743</v>
-      </c>
-    </row>
-    <row r="442" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>35442</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
-        <v>44327</v>
+        <v>44316</v>
       </c>
       <c r="B442">
         <v>441</v>
       </c>
       <c r="C442">
-        <v>36195</v>
-      </c>
-    </row>
-    <row r="443" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31991</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
-        <v>44328</v>
+        <v>44317</v>
       </c>
       <c r="B443">
         <v>442</v>
       </c>
       <c r="C443">
-        <v>34543</v>
-      </c>
-    </row>
-    <row r="444" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16438</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
-        <v>44329</v>
+        <v>44318</v>
       </c>
       <c r="B444">
         <v>443</v>
       </c>
       <c r="C444">
-        <v>33222</v>
-      </c>
-    </row>
-    <row r="445" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
-        <v>44330</v>
+        <v>44319</v>
       </c>
       <c r="B445">
         <v>444</v>
       </c>
       <c r="C445">
-        <v>34616</v>
-      </c>
-    </row>
-    <row r="446" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5992</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
-        <v>44331</v>
+        <v>44320</v>
       </c>
       <c r="B446">
         <v>445</v>
       </c>
       <c r="C446">
-        <v>32709</v>
-      </c>
-    </row>
-    <row r="447" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14061</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
-        <v>44332</v>
+        <v>44321</v>
       </c>
       <c r="B447">
         <v>446</v>
       </c>
       <c r="C447">
-        <v>18749</v>
-      </c>
-    </row>
-    <row r="448" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36982</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
-        <v>44333</v>
+        <v>44322</v>
       </c>
       <c r="B448">
         <v>447</v>
       </c>
       <c r="C448">
-        <v>11365</v>
-      </c>
-    </row>
-    <row r="449" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38477</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
-        <v>44334</v>
+        <v>44323</v>
       </c>
       <c r="B449">
         <v>448</v>
       </c>
       <c r="C449">
-        <v>32151</v>
-      </c>
-    </row>
-    <row r="450" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38489</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
-        <v>44335</v>
+        <v>44324</v>
       </c>
       <c r="B450">
         <v>449</v>
       </c>
       <c r="C450">
-        <v>31574</v>
-      </c>
-    </row>
-    <row r="451" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37457</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
-        <v>44336</v>
+        <v>44325</v>
       </c>
       <c r="B451">
         <v>450</v>
       </c>
       <c r="C451">
-        <v>31252</v>
-      </c>
-    </row>
-    <row r="452" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>20463</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
-        <v>44337</v>
+        <v>44326</v>
       </c>
       <c r="B452">
         <v>451</v>
       </c>
       <c r="C452">
-        <v>34213</v>
-      </c>
-    </row>
-    <row r="453" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10743</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
-        <v>44338</v>
+        <v>44327</v>
       </c>
       <c r="B453">
         <v>452</v>
       </c>
       <c r="C453">
-        <v>28724</v>
-      </c>
-    </row>
-    <row r="454" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36195</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
-        <v>44339</v>
+        <v>44328</v>
       </c>
       <c r="B454">
         <v>453</v>
       </c>
       <c r="C454">
-        <v>18478</v>
-      </c>
-    </row>
-    <row r="455" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>34543</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
-        <v>44340</v>
+        <v>44329</v>
       </c>
       <c r="B455">
         <v>454</v>
       </c>
       <c r="C455">
-        <v>10487</v>
-      </c>
-    </row>
-    <row r="456" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33222</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
-        <v>44341</v>
+        <v>44330</v>
       </c>
       <c r="B456">
         <v>455</v>
       </c>
       <c r="C456">
-        <v>31087</v>
-      </c>
-    </row>
-    <row r="457" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>34616</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
-        <v>44342</v>
+        <v>44331</v>
       </c>
       <c r="B457">
         <v>456</v>
       </c>
       <c r="C457">
-        <v>33057</v>
-      </c>
-    </row>
-    <row r="458" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>32709</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
-        <v>44343</v>
+        <v>44332</v>
       </c>
       <c r="B458">
         <v>457</v>
       </c>
       <c r="C458">
-        <v>31150</v>
-      </c>
-    </row>
-    <row r="459" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>18749</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
-        <v>44344</v>
+        <v>44333</v>
       </c>
       <c r="B459">
         <v>458</v>
       </c>
       <c r="C459">
-        <v>32868</v>
-      </c>
-    </row>
-    <row r="460" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11365</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
-        <v>44345</v>
+        <v>44334</v>
       </c>
       <c r="B460">
         <v>459</v>
       </c>
       <c r="C460">
-        <v>28992</v>
-      </c>
-    </row>
-    <row r="461" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>32151</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
-        <v>44346</v>
+        <v>44335</v>
       </c>
       <c r="B461">
         <v>460</v>
       </c>
       <c r="C461">
-        <v>16973</v>
-      </c>
-    </row>
-    <row r="462" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31574</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
-        <v>44347</v>
+        <v>44336</v>
       </c>
       <c r="B462">
         <v>461</v>
       </c>
       <c r="C462">
-        <v>9816</v>
-      </c>
-    </row>
-    <row r="463" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31252</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
-        <v>44348</v>
+        <v>44337</v>
       </c>
       <c r="B463">
         <v>462</v>
       </c>
       <c r="C463">
-        <v>26785</v>
-      </c>
-    </row>
-    <row r="464" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>34213</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
-        <v>44349</v>
+        <v>44338</v>
       </c>
       <c r="B464">
         <v>463</v>
       </c>
       <c r="C464">
-        <v>16745</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>28724</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
-        <v>44350</v>
+        <v>44339</v>
       </c>
       <c r="B465">
         <v>464</v>
       </c>
       <c r="C465">
-        <v>31775</v>
-      </c>
-    </row>
-    <row r="466" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>18478</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
-        <v>44351</v>
+        <v>44340</v>
       </c>
       <c r="B466">
         <v>465</v>
       </c>
       <c r="C466">
-        <v>32552</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10487</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
-        <v>44352</v>
+        <v>44341</v>
       </c>
       <c r="B467">
         <v>466</v>
       </c>
       <c r="C467">
-        <v>32183</v>
-      </c>
-    </row>
-    <row r="468" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31087</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
-        <v>44353</v>
+        <v>44342</v>
       </c>
       <c r="B468">
         <v>467</v>
       </c>
       <c r="C468">
-        <v>49987</v>
-      </c>
-    </row>
-    <row r="469" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33057</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
-        <v>44354</v>
+        <v>44343</v>
       </c>
       <c r="B469">
         <v>468</v>
       </c>
       <c r="C469">
-        <v>10072</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31150</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
-        <v>44355</v>
+        <v>44344</v>
       </c>
       <c r="B470">
         <v>469</v>
       </c>
       <c r="C470">
-        <v>30826</v>
-      </c>
-    </row>
-    <row r="471" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>32868</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
-        <v>44356</v>
+        <v>44345</v>
       </c>
       <c r="B471">
         <v>470</v>
       </c>
       <c r="C471">
-        <v>28388</v>
-      </c>
-    </row>
-    <row r="472" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>28992</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
-        <v>44357</v>
+        <v>44346</v>
       </c>
       <c r="B472">
         <v>471</v>
       </c>
       <c r="C472">
-        <v>29823</v>
-      </c>
-    </row>
-    <row r="473" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16973</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
-        <v>44358</v>
+        <v>44347</v>
       </c>
       <c r="B473">
         <v>472</v>
       </c>
       <c r="C473">
-        <v>30239</v>
-      </c>
-    </row>
-    <row r="474" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9816</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
-        <v>44359</v>
+        <v>44348</v>
       </c>
       <c r="B474">
         <v>473</v>
       </c>
       <c r="C474">
-        <v>28411</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26785</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
-        <v>44360</v>
+        <v>44349</v>
       </c>
       <c r="B475">
         <v>474</v>
       </c>
       <c r="C475">
-        <v>15853</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16745</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
-        <v>44361</v>
+        <v>44350</v>
       </c>
       <c r="B476">
         <v>475</v>
       </c>
       <c r="C476">
-        <v>27930</v>
-      </c>
-    </row>
-    <row r="477" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31775</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
-        <v>44362</v>
+        <v>44351</v>
       </c>
       <c r="B477">
         <v>476</v>
       </c>
       <c r="C477">
-        <v>41710</v>
-      </c>
-    </row>
-    <row r="478" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>32552</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
-        <v>44363</v>
+        <v>44352</v>
       </c>
       <c r="B478">
         <v>477</v>
       </c>
       <c r="C478">
-        <v>60340</v>
-      </c>
-    </row>
-    <row r="479" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>32183</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
-        <v>44364</v>
+        <v>44353</v>
       </c>
       <c r="B479">
         <v>478</v>
       </c>
       <c r="C479">
-        <v>58158</v>
-      </c>
-    </row>
-    <row r="480" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>49987</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
-        <v>44365</v>
+        <v>44354</v>
       </c>
       <c r="B480">
         <v>479</v>
       </c>
       <c r="C480">
-        <v>59654</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10072</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
-        <v>44366</v>
+        <v>44355</v>
       </c>
       <c r="B481">
         <v>480</v>
       </c>
       <c r="C481">
+        <v>30826</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A482" s="1">
+        <v>44356</v>
+      </c>
+      <c r="B482">
+        <v>481</v>
+      </c>
+      <c r="C482">
+        <v>28388</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A483" s="1">
+        <v>44357</v>
+      </c>
+      <c r="B483">
+        <v>482</v>
+      </c>
+      <c r="C483">
+        <v>29823</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A484" s="1">
+        <v>44358</v>
+      </c>
+      <c r="B484">
+        <v>483</v>
+      </c>
+      <c r="C484">
+        <v>30239</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A485" s="1">
+        <v>44359</v>
+      </c>
+      <c r="B485">
+        <v>484</v>
+      </c>
+      <c r="C485">
+        <v>28411</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A486" s="1">
+        <v>44360</v>
+      </c>
+      <c r="B486">
+        <v>485</v>
+      </c>
+      <c r="C486">
+        <v>15853</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A487" s="1">
+        <v>44361</v>
+      </c>
+      <c r="B487">
+        <v>486</v>
+      </c>
+      <c r="C487">
+        <v>27930</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A488" s="1">
+        <v>44362</v>
+      </c>
+      <c r="B488">
+        <v>487</v>
+      </c>
+      <c r="C488">
+        <v>41710</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A489" s="1">
+        <v>44363</v>
+      </c>
+      <c r="B489">
+        <v>488</v>
+      </c>
+      <c r="C489">
+        <v>60340</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A490" s="1">
+        <v>44364</v>
+      </c>
+      <c r="B490">
+        <v>489</v>
+      </c>
+      <c r="C490">
+        <v>58158</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A491" s="1">
+        <v>44365</v>
+      </c>
+      <c r="B491">
+        <v>490</v>
+      </c>
+      <c r="C491">
+        <v>59654</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A492" s="1">
+        <v>44366</v>
+      </c>
+      <c r="B492">
+        <v>491</v>
+      </c>
+      <c r="C492">
         <v>63528</v>
       </c>
     </row>
